--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>Set Up GitHub</t>
+  </si>
+  <si>
+    <t>Create Gantt Chart</t>
+  </si>
+  <si>
+    <t>Intro Paragraph</t>
+  </si>
+  <si>
+    <t>Motivation and start terms</t>
+  </si>
+  <si>
+    <t>Research platform/environment</t>
+  </si>
+  <si>
+    <t>Look at raspberry pi's and supported languages</t>
   </si>
 </sst>
 </file>
@@ -688,29 +703,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23"/>
+    <col min="3" max="3" width="11" style="23" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -721,10 +736,10 @@
       <c r="A2" s="16">
         <v>42530</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="21">
         <v>1</v>
       </c>
       <c r="D2" s="5"/>
@@ -733,10 +748,10 @@
       <c r="A3" s="17">
         <v>42534</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="23">
         <v>1</v>
       </c>
     </row>
@@ -744,10 +759,10 @@
       <c r="A4" s="17">
         <v>42539</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="23">
         <v>1</v>
       </c>
     </row>
@@ -755,10 +770,10 @@
       <c r="A5" s="17">
         <v>42539</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -769,11 +784,53 @@
       <c r="A6" s="17">
         <v>42539</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="23">
         <v>0.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="23">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>42540</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>42540</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="23">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>42540</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="23">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -783,12 +840,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K305" sqref="K305"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -861,7 +917,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C34" si="0">C2+1</f>
@@ -885,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -911,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -937,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -963,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -989,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1033,18 +1089,18 @@
         <v>2</v>
       </c>
       <c r="F9" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1070,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1096,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1174,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1200,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1226,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1252,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1278,27 +1334,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H19" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="23">
+        <v>2</v>
+      </c>
+      <c r="F19" s="23">
+        <v>2</v>
+      </c>
+      <c r="G19" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C19)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H20" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C20)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1308,7 +1399,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1318,7 +1409,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1328,7 +1419,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1338,7 +1429,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1348,7 +1439,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1358,7 +1449,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1368,7 +1459,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1378,7 +1469,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1388,7 +1479,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1398,7 +1489,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1408,7 +1499,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1418,7 +1509,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1428,7 +1519,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1438,7 +1529,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="23">
         <f t="shared" ref="C35:C66" si="2">C34+1</f>
         <v>34</v>
@@ -1448,7 +1539,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="23">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -1458,7 +1549,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="23">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -1468,7 +1559,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="23">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -1478,7 +1569,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="23">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -1488,7 +1579,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="23">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -1498,7 +1589,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="23">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -1508,7 +1599,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="23">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -1518,7 +1609,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="23">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -1528,7 +1619,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="23">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -1538,7 +1629,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="23">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -1548,7 +1639,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="23">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -1558,7 +1649,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="23">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -1568,7 +1659,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="23">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -1578,7 +1669,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="23">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -1588,7 +1679,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="23">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -1598,7 +1689,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="23">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -1608,7 +1699,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="23">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -1618,7 +1709,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="23">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -1628,7 +1719,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="23">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -1638,7 +1729,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="23">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -1648,7 +1739,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="23">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -1658,7 +1749,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="23">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -1668,7 +1759,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="23">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -1678,7 +1769,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="23">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -1688,7 +1779,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="23">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -1698,7 +1789,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="23">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -1708,7 +1799,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="23">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -1718,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="23">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -1728,7 +1819,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="23">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -1738,7 +1829,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="23">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -1748,7 +1839,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="23">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -1758,7 +1849,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="23">
         <f t="shared" ref="C67:C98" si="3">C66+1</f>
         <v>66</v>
@@ -1768,7 +1859,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="23">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -1778,7 +1869,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="23">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -1788,7 +1879,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="23">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -1798,7 +1889,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="23">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -1808,7 +1899,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="23">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -1818,7 +1909,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="23">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -1828,7 +1919,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="23">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -1838,7 +1929,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="23">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -1848,7 +1939,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="23">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -1858,7 +1949,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="23">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -1868,7 +1959,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="23">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -1878,7 +1969,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="23">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -1888,7 +1979,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="23">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -1898,7 +1989,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="23">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -1908,7 +1999,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="23">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -1918,7 +2009,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="23">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -1928,7 +2019,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="23">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -1938,7 +2029,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="23">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -1948,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="23">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -1958,7 +2049,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="23">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -1968,7 +2059,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="23">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -1978,7 +2069,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="23">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -1988,7 +2079,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="23">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -1998,7 +2089,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="23">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -2008,7 +2099,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="23">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -2018,7 +2109,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="23">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -2028,7 +2119,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="23">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -2038,7 +2129,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" s="23">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -2048,7 +2139,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="23">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -2058,7 +2149,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="23">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -2068,7 +2159,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="23">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -2078,7 +2169,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="23">
         <f t="shared" ref="C99:C130" si="5">C98+1</f>
         <v>98</v>
@@ -2088,7 +2179,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="23">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -2098,7 +2189,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="23">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -2108,7 +2199,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="23">
         <f t="shared" si="5"/>
         <v>101</v>
@@ -2118,7 +2209,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="23">
         <f t="shared" si="5"/>
         <v>102</v>
@@ -2128,7 +2219,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="23">
         <f t="shared" si="5"/>
         <v>103</v>
@@ -2138,7 +2229,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="23">
         <f t="shared" si="5"/>
         <v>104</v>
@@ -2148,7 +2239,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="23">
         <f t="shared" si="5"/>
         <v>105</v>
@@ -2158,7 +2249,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="23">
         <f t="shared" si="5"/>
         <v>106</v>
@@ -2168,7 +2259,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="23">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -2178,7 +2269,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="23">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -2188,7 +2279,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="23">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -2198,7 +2289,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="23">
         <f t="shared" si="5"/>
         <v>110</v>
@@ -2208,7 +2299,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="23">
         <f t="shared" si="5"/>
         <v>111</v>
@@ -2218,7 +2309,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="23">
         <f t="shared" si="5"/>
         <v>112</v>
@@ -2228,7 +2319,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="23">
         <f t="shared" si="5"/>
         <v>113</v>
@@ -2238,7 +2329,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="23">
         <f t="shared" si="5"/>
         <v>114</v>
@@ -2248,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="23">
         <f t="shared" si="5"/>
         <v>115</v>
@@ -2258,7 +2349,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="23">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -2268,7 +2359,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="23">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -2278,7 +2369,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="23">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -2288,7 +2379,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="23">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -2298,7 +2389,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="23">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -2308,7 +2399,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="23">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -2318,7 +2409,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="23">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -2328,7 +2419,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="23">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -2338,7 +2429,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="23">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -2348,7 +2439,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="23">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -2358,7 +2449,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="23">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -2368,7 +2459,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="23">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -2378,7 +2469,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="23">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -2388,7 +2479,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="23">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -2398,7 +2489,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="23">
         <f t="shared" ref="C131:C162" si="6">C130+1</f>
         <v>130</v>
@@ -2408,7 +2499,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="23">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -2418,7 +2509,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="23">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -2428,7 +2519,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="23">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -2438,7 +2529,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="23">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -2448,7 +2539,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="23">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -2458,7 +2549,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="23">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -2468,7 +2559,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="23">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -2478,7 +2569,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="23">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -2488,7 +2579,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="23">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -2498,7 +2589,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="23">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -2508,7 +2599,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="23">
         <f t="shared" si="6"/>
         <v>141</v>
@@ -2518,7 +2609,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="23">
         <f t="shared" si="6"/>
         <v>142</v>
@@ -2528,7 +2619,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="23">
         <f t="shared" si="6"/>
         <v>143</v>
@@ -2538,7 +2629,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" s="23">
         <f t="shared" si="6"/>
         <v>144</v>
@@ -2548,7 +2639,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" s="23">
         <f t="shared" si="6"/>
         <v>145</v>
@@ -2558,7 +2649,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" s="23">
         <f t="shared" si="6"/>
         <v>146</v>
@@ -2568,7 +2659,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" s="23">
         <f t="shared" si="6"/>
         <v>147</v>
@@ -2578,7 +2669,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" s="23">
         <f t="shared" si="6"/>
         <v>148</v>
@@ -2588,7 +2679,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="23">
         <f t="shared" si="6"/>
         <v>149</v>
@@ -2598,7 +2689,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="23">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -2608,7 +2699,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="23">
         <f t="shared" si="6"/>
         <v>151</v>
@@ -2618,7 +2709,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="23">
         <f t="shared" si="6"/>
         <v>152</v>
@@ -2628,7 +2719,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="23">
         <f t="shared" si="6"/>
         <v>153</v>
@@ -2638,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="23">
         <f t="shared" si="6"/>
         <v>154</v>
@@ -2648,7 +2739,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="23">
         <f t="shared" si="6"/>
         <v>155</v>
@@ -2658,7 +2749,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" s="23">
         <f t="shared" si="6"/>
         <v>156</v>
@@ -2668,7 +2759,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="23">
         <f t="shared" si="6"/>
         <v>157</v>
@@ -2678,7 +2769,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="23">
         <f t="shared" si="6"/>
         <v>158</v>
@@ -2688,7 +2779,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="23">
         <f t="shared" si="6"/>
         <v>159</v>
@@ -2698,7 +2789,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="23">
         <f t="shared" si="6"/>
         <v>160</v>
@@ -2708,7 +2799,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="23">
         <f t="shared" si="6"/>
         <v>161</v>
@@ -2718,7 +2809,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="23">
         <f t="shared" ref="C163:C193" si="8">C162+1</f>
         <v>162</v>
@@ -2728,7 +2819,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="23">
         <f t="shared" si="8"/>
         <v>163</v>
@@ -2738,7 +2829,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="23">
         <f t="shared" si="8"/>
         <v>164</v>
@@ -2748,7 +2839,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="23">
         <f t="shared" si="8"/>
         <v>165</v>
@@ -2758,7 +2849,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="23">
         <f t="shared" si="8"/>
         <v>166</v>
@@ -2768,7 +2859,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="23">
         <f t="shared" si="8"/>
         <v>167</v>
@@ -2778,7 +2869,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="23">
         <f t="shared" si="8"/>
         <v>168</v>
@@ -2788,7 +2879,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="23">
         <f t="shared" si="8"/>
         <v>169</v>
@@ -2798,7 +2889,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="23">
         <f t="shared" si="8"/>
         <v>170</v>
@@ -2808,7 +2899,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="23">
         <f t="shared" si="8"/>
         <v>171</v>
@@ -2818,7 +2909,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="23">
         <f t="shared" si="8"/>
         <v>172</v>
@@ -2828,7 +2919,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="23">
         <f t="shared" si="8"/>
         <v>173</v>
@@ -2838,7 +2929,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="23">
         <f t="shared" si="8"/>
         <v>174</v>
@@ -2848,7 +2939,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="23">
         <f t="shared" si="8"/>
         <v>175</v>
@@ -2858,7 +2949,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C177" s="23">
         <f t="shared" si="8"/>
         <v>176</v>
@@ -2868,7 +2959,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C178" s="23">
         <f t="shared" si="8"/>
         <v>177</v>
@@ -2878,7 +2969,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C179" s="23">
         <f t="shared" si="8"/>
         <v>178</v>
@@ -2888,7 +2979,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C180" s="23">
         <f t="shared" si="8"/>
         <v>179</v>
@@ -2898,7 +2989,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C181" s="23">
         <f t="shared" si="8"/>
         <v>180</v>
@@ -2908,7 +2999,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C182" s="23">
         <f t="shared" si="8"/>
         <v>181</v>
@@ -2918,7 +3009,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C183" s="23">
         <f t="shared" si="8"/>
         <v>182</v>
@@ -2928,7 +3019,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C184" s="23">
         <f t="shared" si="8"/>
         <v>183</v>
@@ -2938,7 +3029,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C185" s="23">
         <f t="shared" si="8"/>
         <v>184</v>
@@ -2948,7 +3039,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C186" s="23">
         <f t="shared" si="8"/>
         <v>185</v>
@@ -2958,7 +3049,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C187" s="23">
         <f t="shared" si="8"/>
         <v>186</v>
@@ -2968,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C188" s="23">
         <f t="shared" si="8"/>
         <v>187</v>
@@ -2978,7 +3069,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C189" s="23">
         <f t="shared" si="8"/>
         <v>188</v>
@@ -2988,7 +3079,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C190" s="23">
         <f t="shared" si="8"/>
         <v>189</v>
@@ -2998,7 +3089,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C191" s="23">
         <f t="shared" si="8"/>
         <v>190</v>
@@ -3008,7 +3099,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C192" s="23">
         <f t="shared" si="8"/>
         <v>191</v>
@@ -3018,7 +3109,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C193" s="23">
         <f t="shared" si="8"/>
         <v>192</v>
@@ -3028,668 +3119,662 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H194" s="22" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H195" s="22" t="str">
         <f t="shared" ref="H195:H258" si="9">IF(F195+G195&gt;0,G195/(G195+F195),"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H196" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H197" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H198" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H199" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H200" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H201" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H202" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H203" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H204" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H205" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H206" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H207" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H208" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H213" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H214" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H215" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H216" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H217" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H218" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H219" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H220" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H221" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H222" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H223" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H224" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H225" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H226" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H227" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H228" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H229" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H230" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H231" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H232" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H233" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H234" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H235" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H236" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H237" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H238" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H239" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H240" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H241" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H242" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H243" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H244" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H245" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H246" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H247" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H248" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H249" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H250" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H251" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H252" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H253" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H254" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H255" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H256" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H257" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H258" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H259" s="22" t="str">
         <f t="shared" ref="H259:H280" si="10">IF(F259+G259&gt;0,G259/(G259+F259),"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H260" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H261" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H262" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H263" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H264" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H265" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H266" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H267" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H268" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H269" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H270" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H271" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H272" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H273" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H274" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H275" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H276" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H277" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H278" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H279" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H280" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H281" s="24" t="str">
         <f t="shared" ref="H281:H302" si="11">IF(F281&gt;0,G281/(G281+F281),"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H282" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H283" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H284" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H285" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H286" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H287" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H288" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H289" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H290" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H291" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H292" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H293" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H294" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H295" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H296" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H297" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H298" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H299" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H300" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H301" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H302" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H302">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="In Progress"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H302"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3701,7 +3786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,27 +3830,27 @@
       </c>
       <c r="B2" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11">
         <f>IF(C2+B2&gt;0,B2/(B2+C2),"")</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>43.5</v>
+        <v>45.5</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.13</v>
+        <v>0.15740740740740741</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3774,15 +3859,15 @@
       </c>
       <c r="B3" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A3)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C3" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A3)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">IF(C3+B3&gt;0,B3/(B3+C3),"")</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0.15789473684210525</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3795,7 +3880,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A4)</f>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -171,15 +171,59 @@
   <si>
     <t>Look at raspberry pi's and supported languages</t>
   </si>
+  <si>
+    <t>Researched web servers and API's</t>
+  </si>
+  <si>
+    <t>Research Servers and API's</t>
+  </si>
+  <si>
+    <t>Chose terms, formated definitions, made refrences</t>
+  </si>
+  <si>
+    <t>Days In</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Days Left</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Finished defining terms</t>
+  </si>
+  <si>
+    <t>Class Completed</t>
+  </si>
+  <si>
+    <t>Delta Days</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,10 +415,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -423,11 +468,118 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -703,11 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,6 +985,48 @@
         <v>46</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>42541</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>42541</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="23">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>42541</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="23">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -843,8 +1037,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
@@ -1089,21 +1283,24 @@
         <v>2</v>
       </c>
       <c r="F9" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C9)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H9" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B10" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1390,13 +1587,32 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H21" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C21)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3782,11 +3998,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:R289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,9 +4015,11 @@
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -3823,26 +4041,50 @@
       <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11">
         <f>IF(C2+B2&gt;0,B2/(B2+C2),"")</f>
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
@@ -3850,27 +4092,57 @@
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.15740740740740741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+      <c r="K2" s="16">
+        <v>42527</v>
+      </c>
+      <c r="L2" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42541</v>
+      </c>
+      <c r="M2" s="16">
+        <v>42580</v>
+      </c>
+      <c r="N2" s="5">
+        <f ca="1">L2-K2</f>
+        <v>14</v>
+      </c>
+      <c r="O2" s="5">
+        <f ca="1">M2-L2</f>
+        <v>39</v>
+      </c>
+      <c r="P2" s="28">
+        <f ca="1">N2/(N2+O2)</f>
+        <v>0.26415094339622641</v>
+      </c>
+      <c r="Q2" s="6">
+        <f ca="1">I2-P2</f>
+        <v>-7.6650943396226412E-2</v>
+      </c>
+      <c r="R2" s="30">
+        <f ca="1">Q2*(N2+O2)</f>
+        <v>-4.0625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A3)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C3" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A3)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">IF(C3+B3&gt;0,B3/(B3+C3),"")</f>
-        <v>0.15789473684210525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -3887,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -3904,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -3921,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -3938,55 +4210,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5631,6 +5903,22 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phase 1 Tasks'!$A$1:$H$302</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>Delta Days</t>
+  </si>
+  <si>
+    <t>Created figure and did overview intro paragraph</t>
+  </si>
+  <si>
+    <t>Create system context diagram and write supporting paragraph</t>
+  </si>
+  <si>
+    <t>Started Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Finished use case diagram and set up use case sections</t>
+  </si>
+  <si>
+    <t>Finish Use Case details</t>
+  </si>
+  <si>
+    <t>Finishe last sections of Vision document</t>
   </si>
 </sst>
 </file>
@@ -214,7 +232,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -472,23 +490,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -516,56 +524,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -668,6 +626,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -703,6 +678,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -855,11 +847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +859,7 @@
     <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="3" width="11" style="23" customWidth="1"/>
-    <col min="4" max="4" width="54.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1025,6 +1017,90 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>42542</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="23">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>42546</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1</v>
+      </c>
+      <c r="C14" s="23">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>42546</v>
+      </c>
+      <c r="B15" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="23">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>42546</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C16" s="23">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>42546</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>42546</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="23">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1034,11 +1110,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1139,6 +1216,9 @@
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B4" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1161,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1187,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1213,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1265,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1294,12 +1374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
@@ -1312,21 +1392,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C10)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B11" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1338,21 +1421,24 @@
         <v>4</v>
       </c>
       <c r="F11" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C11)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1364,21 +1450,24 @@
         <v>1</v>
       </c>
       <c r="F12" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C12)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1401,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1427,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1479,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1505,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1615,7 +1704,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C22" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1625,7 +1714,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1635,7 +1724,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C24" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1645,7 +1734,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C25" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1655,7 +1744,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C26" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1665,7 +1754,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C27" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1675,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C28" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1685,7 +1774,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1695,7 +1784,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C30" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1705,7 +1794,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1715,7 +1804,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C32" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1725,7 +1814,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C33" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1735,7 +1824,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C34" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1745,7 +1834,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C35" s="23">
         <f t="shared" ref="C35:C66" si="2">C34+1</f>
         <v>34</v>
@@ -1755,7 +1844,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C36" s="23">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -1765,7 +1854,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C37" s="23">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -1775,7 +1864,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C38" s="23">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -1785,7 +1874,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C39" s="23">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -1795,7 +1884,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C40" s="23">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -1805,7 +1894,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C41" s="23">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -1815,7 +1904,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C42" s="23">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -1825,7 +1914,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C43" s="23">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -1835,7 +1924,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C44" s="23">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -1845,7 +1934,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C45" s="23">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -1855,7 +1944,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C46" s="23">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -1865,7 +1954,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C47" s="23">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -1875,7 +1964,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C48" s="23">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -1885,7 +1974,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C49" s="23">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -1895,7 +1984,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C50" s="23">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -1905,7 +1994,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C51" s="23">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -1915,7 +2004,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C52" s="23">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -1925,7 +2014,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C53" s="23">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -1935,7 +2024,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C54" s="23">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -1945,7 +2034,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C55" s="23">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -1955,7 +2044,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C56" s="23">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -1965,7 +2054,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C57" s="23">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -1975,7 +2064,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C58" s="23">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -1985,7 +2074,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C59" s="23">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -1995,7 +2084,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C60" s="23">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -2005,7 +2094,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61" s="23">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2015,7 +2104,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C62" s="23">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -2025,7 +2114,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C63" s="23">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -2035,7 +2124,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="23">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -2045,7 +2134,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C65" s="23">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -2055,7 +2144,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C66" s="23">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -2065,7 +2154,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C67" s="23">
         <f t="shared" ref="C67:C98" si="3">C66+1</f>
         <v>66</v>
@@ -2075,7 +2164,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C68" s="23">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -2085,7 +2174,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C69" s="23">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -2095,7 +2184,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C70" s="23">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -2105,7 +2194,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C71" s="23">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -2115,7 +2204,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C72" s="23">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -2125,7 +2214,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C73" s="23">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -2135,7 +2224,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C74" s="23">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -2145,7 +2234,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C75" s="23">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -2155,7 +2244,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="23">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -2165,7 +2254,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C77" s="23">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -2175,7 +2264,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C78" s="23">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -2185,7 +2274,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C79" s="23">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -2195,7 +2284,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C80" s="23">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -2205,7 +2294,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C81" s="23">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -2215,7 +2304,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C82" s="23">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -2225,7 +2314,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C83" s="23">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -2235,7 +2324,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C84" s="23">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -2245,7 +2334,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C85" s="23">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -2255,7 +2344,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C86" s="23">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -2265,7 +2354,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C87" s="23">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -2275,7 +2364,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C88" s="23">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -2285,7 +2374,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C89" s="23">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -2295,7 +2384,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C90" s="23">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -2305,7 +2394,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C91" s="23">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -2315,7 +2404,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C92" s="23">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -2325,7 +2414,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C93" s="23">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -2335,7 +2424,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C94" s="23">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -2345,7 +2434,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C95" s="23">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -2355,7 +2444,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C96" s="23">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -2365,7 +2454,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C97" s="23">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -2375,7 +2464,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C98" s="23">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -2385,7 +2474,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C99" s="23">
         <f t="shared" ref="C99:C130" si="5">C98+1</f>
         <v>98</v>
@@ -2395,7 +2484,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C100" s="23">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -2405,7 +2494,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C101" s="23">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -2415,7 +2504,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C102" s="23">
         <f t="shared" si="5"/>
         <v>101</v>
@@ -2425,7 +2514,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C103" s="23">
         <f t="shared" si="5"/>
         <v>102</v>
@@ -2435,7 +2524,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C104" s="23">
         <f t="shared" si="5"/>
         <v>103</v>
@@ -2445,7 +2534,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C105" s="23">
         <f t="shared" si="5"/>
         <v>104</v>
@@ -2455,7 +2544,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C106" s="23">
         <f t="shared" si="5"/>
         <v>105</v>
@@ -2465,7 +2554,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C107" s="23">
         <f t="shared" si="5"/>
         <v>106</v>
@@ -2475,7 +2564,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C108" s="23">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -2485,7 +2574,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C109" s="23">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -2495,7 +2584,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C110" s="23">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -2505,7 +2594,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C111" s="23">
         <f t="shared" si="5"/>
         <v>110</v>
@@ -2515,7 +2604,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C112" s="23">
         <f t="shared" si="5"/>
         <v>111</v>
@@ -2525,7 +2614,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C113" s="23">
         <f t="shared" si="5"/>
         <v>112</v>
@@ -2535,7 +2624,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C114" s="23">
         <f t="shared" si="5"/>
         <v>113</v>
@@ -2545,7 +2634,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C115" s="23">
         <f t="shared" si="5"/>
         <v>114</v>
@@ -2555,7 +2644,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C116" s="23">
         <f t="shared" si="5"/>
         <v>115</v>
@@ -2565,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C117" s="23">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -2575,7 +2664,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C118" s="23">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -2585,7 +2674,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C119" s="23">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -2595,7 +2684,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C120" s="23">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -2605,7 +2694,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C121" s="23">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -2615,7 +2704,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C122" s="23">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -2625,7 +2714,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C123" s="23">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -2635,7 +2724,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C124" s="23">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -2645,7 +2734,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C125" s="23">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -2655,7 +2744,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C126" s="23">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -2665,7 +2754,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C127" s="23">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -2675,7 +2764,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C128" s="23">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -2685,7 +2774,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C129" s="23">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -2695,7 +2784,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C130" s="23">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -2705,7 +2794,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C131" s="23">
         <f t="shared" ref="C131:C162" si="6">C130+1</f>
         <v>130</v>
@@ -2715,7 +2804,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C132" s="23">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -2725,7 +2814,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C133" s="23">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -2735,7 +2824,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C134" s="23">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -2745,7 +2834,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C135" s="23">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -2755,7 +2844,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C136" s="23">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -2765,7 +2854,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C137" s="23">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -2775,7 +2864,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C138" s="23">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -2785,7 +2874,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C139" s="23">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -2795,7 +2884,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C140" s="23">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -2805,7 +2894,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C141" s="23">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -2815,7 +2904,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C142" s="23">
         <f t="shared" si="6"/>
         <v>141</v>
@@ -2825,7 +2914,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C143" s="23">
         <f t="shared" si="6"/>
         <v>142</v>
@@ -2835,7 +2924,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C144" s="23">
         <f t="shared" si="6"/>
         <v>143</v>
@@ -2845,7 +2934,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C145" s="23">
         <f t="shared" si="6"/>
         <v>144</v>
@@ -2855,7 +2944,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C146" s="23">
         <f t="shared" si="6"/>
         <v>145</v>
@@ -2865,7 +2954,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C147" s="23">
         <f t="shared" si="6"/>
         <v>146</v>
@@ -2875,7 +2964,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C148" s="23">
         <f t="shared" si="6"/>
         <v>147</v>
@@ -2885,7 +2974,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C149" s="23">
         <f t="shared" si="6"/>
         <v>148</v>
@@ -2895,7 +2984,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C150" s="23">
         <f t="shared" si="6"/>
         <v>149</v>
@@ -2905,7 +2994,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C151" s="23">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -2915,7 +3004,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C152" s="23">
         <f t="shared" si="6"/>
         <v>151</v>
@@ -2925,7 +3014,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C153" s="23">
         <f t="shared" si="6"/>
         <v>152</v>
@@ -2935,7 +3024,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C154" s="23">
         <f t="shared" si="6"/>
         <v>153</v>
@@ -2945,7 +3034,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C155" s="23">
         <f t="shared" si="6"/>
         <v>154</v>
@@ -2955,7 +3044,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C156" s="23">
         <f t="shared" si="6"/>
         <v>155</v>
@@ -2965,7 +3054,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C157" s="23">
         <f t="shared" si="6"/>
         <v>156</v>
@@ -2975,7 +3064,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C158" s="23">
         <f t="shared" si="6"/>
         <v>157</v>
@@ -2985,7 +3074,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C159" s="23">
         <f t="shared" si="6"/>
         <v>158</v>
@@ -2995,7 +3084,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C160" s="23">
         <f t="shared" si="6"/>
         <v>159</v>
@@ -3005,7 +3094,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C161" s="23">
         <f t="shared" si="6"/>
         <v>160</v>
@@ -3015,7 +3104,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C162" s="23">
         <f t="shared" si="6"/>
         <v>161</v>
@@ -3025,7 +3114,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C163" s="23">
         <f t="shared" ref="C163:C193" si="8">C162+1</f>
         <v>162</v>
@@ -3035,7 +3124,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C164" s="23">
         <f t="shared" si="8"/>
         <v>163</v>
@@ -3045,7 +3134,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C165" s="23">
         <f t="shared" si="8"/>
         <v>164</v>
@@ -3055,7 +3144,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C166" s="23">
         <f t="shared" si="8"/>
         <v>165</v>
@@ -3065,7 +3154,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C167" s="23">
         <f t="shared" si="8"/>
         <v>166</v>
@@ -3075,7 +3164,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C168" s="23">
         <f t="shared" si="8"/>
         <v>167</v>
@@ -3085,7 +3174,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C169" s="23">
         <f t="shared" si="8"/>
         <v>168</v>
@@ -3095,7 +3184,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C170" s="23">
         <f t="shared" si="8"/>
         <v>169</v>
@@ -3105,7 +3194,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C171" s="23">
         <f t="shared" si="8"/>
         <v>170</v>
@@ -3115,7 +3204,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C172" s="23">
         <f t="shared" si="8"/>
         <v>171</v>
@@ -3125,7 +3214,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C173" s="23">
         <f t="shared" si="8"/>
         <v>172</v>
@@ -3135,7 +3224,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C174" s="23">
         <f t="shared" si="8"/>
         <v>173</v>
@@ -3145,7 +3234,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C175" s="23">
         <f t="shared" si="8"/>
         <v>174</v>
@@ -3155,7 +3244,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C176" s="23">
         <f t="shared" si="8"/>
         <v>175</v>
@@ -3165,7 +3254,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C177" s="23">
         <f t="shared" si="8"/>
         <v>176</v>
@@ -3175,7 +3264,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C178" s="23">
         <f t="shared" si="8"/>
         <v>177</v>
@@ -3185,7 +3274,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C179" s="23">
         <f t="shared" si="8"/>
         <v>178</v>
@@ -3195,7 +3284,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C180" s="23">
         <f t="shared" si="8"/>
         <v>179</v>
@@ -3205,7 +3294,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C181" s="23">
         <f t="shared" si="8"/>
         <v>180</v>
@@ -3215,7 +3304,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C182" s="23">
         <f t="shared" si="8"/>
         <v>181</v>
@@ -3225,7 +3314,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C183" s="23">
         <f t="shared" si="8"/>
         <v>182</v>
@@ -3235,7 +3324,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C184" s="23">
         <f t="shared" si="8"/>
         <v>183</v>
@@ -3245,7 +3334,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C185" s="23">
         <f t="shared" si="8"/>
         <v>184</v>
@@ -3255,7 +3344,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C186" s="23">
         <f t="shared" si="8"/>
         <v>185</v>
@@ -3265,7 +3354,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C187" s="23">
         <f t="shared" si="8"/>
         <v>186</v>
@@ -3275,7 +3364,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C188" s="23">
         <f t="shared" si="8"/>
         <v>187</v>
@@ -3285,7 +3374,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C189" s="23">
         <f t="shared" si="8"/>
         <v>188</v>
@@ -3295,7 +3384,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C190" s="23">
         <f t="shared" si="8"/>
         <v>189</v>
@@ -3305,7 +3394,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C191" s="23">
         <f t="shared" si="8"/>
         <v>190</v>
@@ -3315,7 +3404,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C192" s="23">
         <f t="shared" si="8"/>
         <v>191</v>
@@ -3325,7 +3414,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C193" s="23">
         <f t="shared" si="8"/>
         <v>192</v>
@@ -3335,662 +3424,668 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H194" s="22" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H195" s="22" t="str">
         <f t="shared" ref="H195:H258" si="9">IF(F195+G195&gt;0,G195/(G195+F195),"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H196" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H197" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H198" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H199" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H200" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H201" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H202" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H203" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H204" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H205" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H206" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H207" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H208" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H209" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H210" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H211" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H212" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H213" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H214" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H215" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H216" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H217" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H218" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H219" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H220" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H221" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H222" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H223" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H224" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H225" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H226" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H227" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H228" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H229" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H230" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H231" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H232" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H233" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H234" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H235" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H236" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H237" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H238" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H239" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H240" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H241" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H242" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H243" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H244" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H245" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H246" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H247" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H248" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H249" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H250" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H251" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H252" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H253" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H254" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H255" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H256" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H257" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H258" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H259" s="22" t="str">
         <f t="shared" ref="H259:H280" si="10">IF(F259+G259&gt;0,G259/(G259+F259),"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H260" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H261" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H262" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H263" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H264" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H265" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H266" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H267" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H268" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H269" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H270" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H271" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H272" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H273" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H274" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H275" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H276" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H277" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H278" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H279" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H280" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H281" s="24" t="str">
         <f t="shared" ref="H281:H302" si="11">IF(F281&gt;0,G281/(G281+F281),"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H282" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H283" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H284" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H285" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H286" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H287" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H288" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H289" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H290" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H291" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H292" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H293" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H294" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H295" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H296" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H297" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H298" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H299" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H300" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H301" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H302" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H302"/>
+  <autoFilter ref="A1:H302">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="In Progress"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4084,45 +4179,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>45.5</v>
+        <v>38.5</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.1875</v>
+        <v>0.28703703703703703</v>
       </c>
       <c r="K2" s="16">
         <v>42527</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42541</v>
+        <v>42547</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.26415094339622641</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-7.6650943396226412E-2</v>
+        <v>-9.0321453529000728E-2</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-4.0625</v>
+        <v>-4.787037037037039</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4131,15 +4226,15 @@
       </c>
       <c r="B3" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A3)</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="C3" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A3)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">IF(C3+B3&gt;0,B3/(B3+C3),"")</f>
-        <v>0.26315789473684209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -5904,18 +5999,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>Finishe last sections of Vision document</t>
+  </si>
+  <si>
+    <t>Finished project plan setup</t>
+  </si>
+  <si>
+    <t>Finish Intro</t>
+  </si>
+  <si>
+    <t>Finished most of gantt chart, still needs review of details</t>
   </si>
 </sst>
 </file>
@@ -847,11 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1086,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
-        <v>42546</v>
+        <v>42547</v>
       </c>
       <c r="B17" s="23">
         <v>1</v>
@@ -1091,7 +1100,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <v>42546</v>
+        <v>42547</v>
       </c>
       <c r="B18" s="23">
         <v>0.5</v>
@@ -1101,6 +1110,48 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>42548</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="23">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>42548</v>
+      </c>
+      <c r="B20" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="23">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>42548</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1114,8 +1165,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,12 +1263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
@@ -1230,15 +1281,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C4)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1461,12 +1512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
@@ -1479,20 +1530,23 @@
         <v>0.5</v>
       </c>
       <c r="F13" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C13)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
@@ -1620,10 +1674,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B19" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1635,15 +1692,15 @@
         <v>2</v>
       </c>
       <c r="F19" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4179,45 +4236,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>38.5</v>
+        <v>36</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.28703703703703703</v>
+        <v>0.32710280373831774</v>
       </c>
       <c r="K2" s="16">
         <v>42527</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42547</v>
+        <v>42548</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.37735849056603776</v>
+        <v>0.39622641509433965</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-9.0321453529000728E-2</v>
+        <v>-6.9123611356021908E-2</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-4.787037037037039</v>
+        <v>-3.6635514018691611</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4243,15 +4300,15 @@
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A4)</f>
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>Finished most of gantt chart, still needs review of details</t>
+  </si>
+  <si>
+    <t>Finalize Gantt chart and put in document</t>
+  </si>
+  <si>
+    <t>Finished WBS section</t>
+  </si>
+  <si>
+    <t>Researched COCOMO</t>
+  </si>
+  <si>
+    <t>Finished Cost estimate</t>
+  </si>
+  <si>
+    <t>Finished elab plan</t>
+  </si>
+  <si>
+    <t>Set up SQA document</t>
   </si>
 </sst>
 </file>
@@ -856,11 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,6 +1172,90 @@
         <v>67</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>42553</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="23">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>42553</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="23">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>42553</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="23">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>42554</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>42554</v>
+      </c>
+      <c r="B26" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="23">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>42554</v>
+      </c>
+      <c r="B27" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="23">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1165,8 +1267,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,6 +1398,9 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B5" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1307,15 +1412,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1541,12 +1646,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
@@ -1559,21 +1664,24 @@
         <v>3</v>
       </c>
       <c r="F14" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C14)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B15" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1585,21 +1693,24 @@
         <v>1</v>
       </c>
       <c r="F15" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C15)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B16" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1611,20 +1722,23 @@
         <v>1</v>
       </c>
       <c r="F16" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C16)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
@@ -1674,12 +1788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
@@ -1692,15 +1806,15 @@
         <v>2</v>
       </c>
       <c r="F19" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C19)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H19" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4154,7 +4268,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,45 +4350,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.32710280373831774</v>
+        <v>0.43137254901960786</v>
       </c>
       <c r="K2" s="16">
         <v>42527</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42548</v>
+        <v>42554</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.39622641509433965</v>
+        <v>0.50943396226415094</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-6.9123611356021908E-2</v>
+        <v>-7.8061413244543076E-2</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-3.6635514018691611</v>
+        <v>-4.1372549019607829</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4300,15 +4414,15 @@
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A4)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A4)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -4317,15 +4431,15 @@
       </c>
       <c r="B5" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Set up SQA document</t>
+  </si>
+  <si>
+    <t>Set up Raspberry PI</t>
+  </si>
+  <si>
+    <t>Finished document</t>
   </si>
 </sst>
 </file>
@@ -874,11 +880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,6 +1262,34 @@
         <v>73</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>42558</v>
+      </c>
+      <c r="B28" s="23">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>42560</v>
+      </c>
+      <c r="B29" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="23">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1267,8 +1301,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,12 +1767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
@@ -1751,15 +1785,15 @@
         <v>3</v>
       </c>
       <c r="F17" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C17)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1835,15 +1869,15 @@
         <v>2</v>
       </c>
       <c r="F20" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4266,9 +4300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,57 +4372,57 @@
       </c>
       <c r="B2" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A2)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="11">
         <f>IF(C2+B2&gt;0,B2/(B2+C2),"")</f>
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>22</v>
+        <v>24.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>29</v>
+        <v>25.5</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.43137254901960786</v>
+        <v>0.49</v>
       </c>
       <c r="K2" s="16">
         <v>42527</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42554</v>
+        <v>42560</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.50943396226415094</v>
+        <v>0.62264150943396224</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-7.8061413244543076E-2</v>
+        <v>-0.13264150943396225</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-4.1372549019607829</v>
+        <v>-7.0299999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4431,15 +4465,15 @@
       </c>
       <c r="B5" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A5)</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Finish SQA Plan</t>
   </si>
   <si>
-    <t>Finish Prototype</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -257,6 +254,42 @@
   </si>
   <si>
     <t>Finished document</t>
+  </si>
+  <si>
+    <t>Create Receiver</t>
+  </si>
+  <si>
+    <t>Create Test Sender</t>
+  </si>
+  <si>
+    <t>Set up environements and started projects</t>
+  </si>
+  <si>
+    <t>Started Receiver</t>
+  </si>
+  <si>
+    <t>Started Sender</t>
+  </si>
+  <si>
+    <t>Research Encryption</t>
+  </si>
+  <si>
+    <t>Proof of Concept RSA Python</t>
+  </si>
+  <si>
+    <t>Give Presentation</t>
+  </si>
+  <si>
+    <t>Proof of Concept RSA Java</t>
+  </si>
+  <si>
+    <t>Encrypted Communication Proof of Concept</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Set up encryption classes</t>
   </si>
 </sst>
 </file>
@@ -880,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,7 +1040,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,7 +1264,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,7 +1320,129 @@
         <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>42563</v>
+      </c>
+      <c r="B30" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="23">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>42563</v>
+      </c>
+      <c r="B31" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="23">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>42563</v>
+      </c>
+      <c r="B32" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="23">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>42565</v>
+      </c>
+      <c r="B33" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>42565</v>
+      </c>
+      <c r="B34" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>42574</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1</v>
+      </c>
+      <c r="C35" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>42574</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>42575</v>
+      </c>
+      <c r="B37" s="23">
+        <v>2</v>
+      </c>
+      <c r="C37" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>42577</v>
+      </c>
+      <c r="B38" s="23">
+        <v>2</v>
+      </c>
+      <c r="C38" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>42582</v>
+      </c>
+      <c r="B39" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C39" s="23">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1502,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -1375,7 +1530,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C34" si="0">C2+1</f>
@@ -1404,7 +1559,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
@@ -1433,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
@@ -1457,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1469,10 +1624,10 @@
         <v>21</v>
       </c>
       <c r="E6" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C6)</f>
@@ -1483,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1513,6 +1668,9 @@
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="B8" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1521,18 +1679,18 @@
         <v>22</v>
       </c>
       <c r="E8" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C8)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1540,7 +1698,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
@@ -1569,7 +1727,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
@@ -1598,7 +1756,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
@@ -1627,7 +1785,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
@@ -1656,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
@@ -1685,7 +1843,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
@@ -1714,7 +1872,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="23">
         <f t="shared" si="0"/>
@@ -1743,7 +1901,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
@@ -1772,7 +1930,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
@@ -1798,36 +1956,36 @@
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" s="23">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F18" s="23">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G18" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H18" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
@@ -1851,12 +2009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
@@ -1869,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C20)</f>
@@ -1877,15 +2035,15 @@
       </c>
       <c r="H20" s="22">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C21" s="23">
         <f t="shared" si="0"/>
@@ -1898,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C21)</f>
@@ -1906,80 +2064,210 @@
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C22)</f>
+        <v>2</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C23)</f>
+        <v>2</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C24)</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="22">
+        <f>IF(F24+G24&gt;0,G24/(G24+F24),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C25)</f>
+        <v>2</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23">
+        <v>1</v>
+      </c>
+      <c r="G26" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="23">
+        <v>3</v>
+      </c>
+      <c r="F27" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C27)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H22" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="23">
-        <f t="shared" si="0"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="23">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H24" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="23">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H25" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="23">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H26" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="23">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H27" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="23">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="H28" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="23">
+        <v>3</v>
+      </c>
+      <c r="F28" s="23">
+        <v>3</v>
+      </c>
+      <c r="G28" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C28)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1989,7 +2277,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1999,7 +2287,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2009,7 +2297,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2019,7 +2307,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2029,7 +2317,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2039,7 +2327,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="23">
         <f t="shared" ref="C35:C66" si="2">C34+1</f>
         <v>34</v>
@@ -2049,7 +2337,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="23">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2059,7 +2347,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="23">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2069,7 +2357,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="23">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2079,7 +2367,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="23">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2089,7 +2377,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="23">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -2099,7 +2387,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="23">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -2109,7 +2397,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="23">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -2119,7 +2407,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="23">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -2129,7 +2417,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="23">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2139,7 +2427,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="23">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -2149,7 +2437,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="23">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -2159,7 +2447,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="23">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -2169,7 +2457,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="23">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -2179,7 +2467,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="23">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2189,7 +2477,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="23">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -2199,7 +2487,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="23">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2209,7 +2497,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="23">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -2219,7 +2507,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="23">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -2229,7 +2517,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="23">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -2239,7 +2527,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="23">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2249,7 +2537,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="23">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -2259,7 +2547,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="23">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -2269,7 +2557,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="23">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -2279,7 +2567,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="23">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2289,7 +2577,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="23">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -2299,7 +2587,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="23">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2309,7 +2597,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="23">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -2319,7 +2607,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="23">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -2329,7 +2617,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="23">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -2339,7 +2627,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="23">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -2349,7 +2637,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="23">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -2359,7 +2647,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="23">
         <f t="shared" ref="C67:C98" si="3">C66+1</f>
         <v>66</v>
@@ -2369,7 +2657,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="23">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -2379,7 +2667,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="23">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -2389,7 +2677,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="23">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -2399,7 +2687,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="23">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -2409,7 +2697,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="23">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -2419,7 +2707,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="23">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -2429,7 +2717,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="23">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -2439,7 +2727,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="23">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -2449,7 +2737,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="23">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -2459,7 +2747,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="23">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -2469,7 +2757,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="23">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -2479,7 +2767,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="23">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -2489,7 +2777,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="23">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -2499,7 +2787,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="23">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -2509,7 +2797,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="23">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -2519,7 +2807,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="23">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -2529,7 +2817,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="23">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -2539,7 +2827,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="23">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -2549,7 +2837,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="23">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -2559,7 +2847,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="23">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -2569,7 +2857,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="23">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -2579,7 +2867,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="23">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -2589,7 +2877,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="23">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -2599,7 +2887,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="23">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -2609,7 +2897,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="23">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -2619,7 +2907,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="23">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -2629,7 +2917,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="23">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -2639,7 +2927,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" s="23">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -2649,7 +2937,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="23">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -2659,7 +2947,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="23">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -2669,7 +2957,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="23">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -2679,7 +2967,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="23">
         <f t="shared" ref="C99:C130" si="5">C98+1</f>
         <v>98</v>
@@ -2689,7 +2977,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="23">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -2699,7 +2987,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="23">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -2709,7 +2997,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="23">
         <f t="shared" si="5"/>
         <v>101</v>
@@ -2719,7 +3007,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="23">
         <f t="shared" si="5"/>
         <v>102</v>
@@ -2729,7 +3017,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="23">
         <f t="shared" si="5"/>
         <v>103</v>
@@ -2739,7 +3027,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="23">
         <f t="shared" si="5"/>
         <v>104</v>
@@ -2749,7 +3037,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="23">
         <f t="shared" si="5"/>
         <v>105</v>
@@ -2759,7 +3047,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="23">
         <f t="shared" si="5"/>
         <v>106</v>
@@ -2769,7 +3057,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="23">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -2779,7 +3067,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="23">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -2789,7 +3077,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="23">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -2799,7 +3087,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="23">
         <f t="shared" si="5"/>
         <v>110</v>
@@ -2809,7 +3097,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="23">
         <f t="shared" si="5"/>
         <v>111</v>
@@ -2819,7 +3107,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="23">
         <f t="shared" si="5"/>
         <v>112</v>
@@ -2829,7 +3117,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="23">
         <f t="shared" si="5"/>
         <v>113</v>
@@ -2839,7 +3127,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="23">
         <f t="shared" si="5"/>
         <v>114</v>
@@ -2849,7 +3137,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="23">
         <f t="shared" si="5"/>
         <v>115</v>
@@ -2859,7 +3147,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="23">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -2869,7 +3157,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="23">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -2879,7 +3167,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="23">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -2889,7 +3177,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="23">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -2899,7 +3187,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="23">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -2909,7 +3197,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="23">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -2919,7 +3207,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="23">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -2929,7 +3217,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="23">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -2939,7 +3227,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="23">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -2949,7 +3237,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="23">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -2959,7 +3247,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="23">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -2969,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="23">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -2979,7 +3267,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="23">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -2989,7 +3277,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="23">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -2999,7 +3287,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="23">
         <f t="shared" ref="C131:C162" si="6">C130+1</f>
         <v>130</v>
@@ -3009,7 +3297,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="23">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -3019,7 +3307,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="23">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -3029,7 +3317,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="23">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -3039,7 +3327,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="23">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -3049,7 +3337,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="23">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -3059,7 +3347,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="23">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -3069,7 +3357,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="23">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -3079,7 +3367,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="23">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -3089,7 +3377,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="23">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -3099,7 +3387,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="23">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -3109,7 +3397,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="23">
         <f t="shared" si="6"/>
         <v>141</v>
@@ -3119,7 +3407,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="23">
         <f t="shared" si="6"/>
         <v>142</v>
@@ -3129,7 +3417,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="23">
         <f t="shared" si="6"/>
         <v>143</v>
@@ -3139,7 +3427,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" s="23">
         <f t="shared" si="6"/>
         <v>144</v>
@@ -3149,7 +3437,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" s="23">
         <f t="shared" si="6"/>
         <v>145</v>
@@ -3159,7 +3447,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" s="23">
         <f t="shared" si="6"/>
         <v>146</v>
@@ -3169,7 +3457,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" s="23">
         <f t="shared" si="6"/>
         <v>147</v>
@@ -3179,7 +3467,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" s="23">
         <f t="shared" si="6"/>
         <v>148</v>
@@ -3189,7 +3477,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="23">
         <f t="shared" si="6"/>
         <v>149</v>
@@ -3199,7 +3487,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="23">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -3209,7 +3497,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="23">
         <f t="shared" si="6"/>
         <v>151</v>
@@ -3219,7 +3507,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="23">
         <f t="shared" si="6"/>
         <v>152</v>
@@ -3229,7 +3517,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="23">
         <f t="shared" si="6"/>
         <v>153</v>
@@ -3239,7 +3527,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="23">
         <f t="shared" si="6"/>
         <v>154</v>
@@ -3249,7 +3537,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="23">
         <f t="shared" si="6"/>
         <v>155</v>
@@ -3259,7 +3547,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" s="23">
         <f t="shared" si="6"/>
         <v>156</v>
@@ -3269,7 +3557,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="23">
         <f t="shared" si="6"/>
         <v>157</v>
@@ -3279,7 +3567,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="23">
         <f t="shared" si="6"/>
         <v>158</v>
@@ -3289,7 +3577,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="23">
         <f t="shared" si="6"/>
         <v>159</v>
@@ -3299,7 +3587,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="23">
         <f t="shared" si="6"/>
         <v>160</v>
@@ -3309,7 +3597,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="23">
         <f t="shared" si="6"/>
         <v>161</v>
@@ -3319,7 +3607,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="23">
         <f t="shared" ref="C163:C193" si="8">C162+1</f>
         <v>162</v>
@@ -3329,7 +3617,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="23">
         <f t="shared" si="8"/>
         <v>163</v>
@@ -3339,7 +3627,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="23">
         <f t="shared" si="8"/>
         <v>164</v>
@@ -3349,7 +3637,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="23">
         <f t="shared" si="8"/>
         <v>165</v>
@@ -3359,7 +3647,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="23">
         <f t="shared" si="8"/>
         <v>166</v>
@@ -3369,7 +3657,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="23">
         <f t="shared" si="8"/>
         <v>167</v>
@@ -3379,7 +3667,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="23">
         <f t="shared" si="8"/>
         <v>168</v>
@@ -3389,7 +3677,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="23">
         <f t="shared" si="8"/>
         <v>169</v>
@@ -3399,7 +3687,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="23">
         <f t="shared" si="8"/>
         <v>170</v>
@@ -3409,7 +3697,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="23">
         <f t="shared" si="8"/>
         <v>171</v>
@@ -3419,7 +3707,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="23">
         <f t="shared" si="8"/>
         <v>172</v>
@@ -3429,7 +3717,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="23">
         <f t="shared" si="8"/>
         <v>173</v>
@@ -3439,7 +3727,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="23">
         <f t="shared" si="8"/>
         <v>174</v>
@@ -3449,7 +3737,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="23">
         <f t="shared" si="8"/>
         <v>175</v>
@@ -3459,7 +3747,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C177" s="23">
         <f t="shared" si="8"/>
         <v>176</v>
@@ -3469,7 +3757,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C178" s="23">
         <f t="shared" si="8"/>
         <v>177</v>
@@ -3479,7 +3767,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C179" s="23">
         <f t="shared" si="8"/>
         <v>178</v>
@@ -3489,7 +3777,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C180" s="23">
         <f t="shared" si="8"/>
         <v>179</v>
@@ -3499,7 +3787,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C181" s="23">
         <f t="shared" si="8"/>
         <v>180</v>
@@ -3509,7 +3797,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C182" s="23">
         <f t="shared" si="8"/>
         <v>181</v>
@@ -3519,7 +3807,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C183" s="23">
         <f t="shared" si="8"/>
         <v>182</v>
@@ -3529,7 +3817,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C184" s="23">
         <f t="shared" si="8"/>
         <v>183</v>
@@ -3539,7 +3827,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C185" s="23">
         <f t="shared" si="8"/>
         <v>184</v>
@@ -3549,7 +3837,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C186" s="23">
         <f t="shared" si="8"/>
         <v>185</v>
@@ -3559,7 +3847,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C187" s="23">
         <f t="shared" si="8"/>
         <v>186</v>
@@ -3569,7 +3857,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C188" s="23">
         <f t="shared" si="8"/>
         <v>187</v>
@@ -3579,7 +3867,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C189" s="23">
         <f t="shared" si="8"/>
         <v>188</v>
@@ -3589,7 +3877,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C190" s="23">
         <f t="shared" si="8"/>
         <v>189</v>
@@ -3599,7 +3887,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C191" s="23">
         <f t="shared" si="8"/>
         <v>190</v>
@@ -3609,7 +3897,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C192" s="23">
         <f t="shared" si="8"/>
         <v>191</v>
@@ -3619,7 +3907,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C193" s="23">
         <f t="shared" si="8"/>
         <v>192</v>
@@ -3629,655 +3917,655 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H194" s="22" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H195" s="22" t="str">
         <f t="shared" ref="H195:H258" si="9">IF(F195+G195&gt;0,G195/(G195+F195),"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H196" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H197" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H198" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H199" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H200" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H201" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H202" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H203" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H204" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H205" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H206" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H207" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H208" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H213" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H214" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H215" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H216" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H217" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H218" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H219" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H220" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H221" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H222" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H223" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H224" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H225" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H226" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H227" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H228" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H229" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H230" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H231" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H232" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H233" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H234" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H235" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H236" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H237" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H238" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H239" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H240" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H241" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H242" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H243" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H244" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H245" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H246" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H247" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H248" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H249" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H250" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H251" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H252" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H253" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H254" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H255" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H256" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H257" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H258" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H259" s="22" t="str">
         <f t="shared" ref="H259:H280" si="10">IF(F259+G259&gt;0,G259/(G259+F259),"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H260" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H261" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H262" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H263" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H264" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H265" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H266" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H267" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H268" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H269" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H270" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H271" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H272" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H273" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H274" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H275" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H276" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H277" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H278" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H279" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H280" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H281" s="24" t="str">
         <f t="shared" ref="H281:H302" si="11">IF(F281&gt;0,G281/(G281+F281),"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H282" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H283" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H284" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H285" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H286" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H287" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H288" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H289" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H290" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H291" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H292" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H293" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H294" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H295" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H296" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H297" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H298" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H299" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H300" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H301" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H302" s="24" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4286,7 +4574,7 @@
   </sheetData>
   <autoFilter ref="A1:H302">
     <filterColumn colId="1">
-      <filters>
+      <filters blank="1">
         <filter val="In Progress"/>
       </filters>
     </filterColumn>
@@ -4302,7 +4590,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4342,28 +4630,28 @@
         <v>13</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="29" t="s">
         <v>57</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -4372,57 +4660,57 @@
       </c>
       <c r="B2" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A2)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A2)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="11">
         <f>IF(C2+B2&gt;0,B2/(B2+C2),"")</f>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>24.5</v>
+        <v>34.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>25.5</v>
+        <v>9.5</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.49</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="K2" s="16">
         <v>42527</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42560</v>
+        <v>42584</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.62264150943396224</v>
+        <v>1.0754716981132075</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.13264150943396225</v>
+        <v>-0.29138078902229847</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-7.0299999999999994</v>
+        <v>-15.443181818181818</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4486,7 +4774,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A6)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
@@ -4499,15 +4787,15 @@
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A7)</f>
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>Make presentation</t>
+  </si>
+  <si>
+    <t>Play with encryption</t>
+  </si>
+  <si>
+    <t>Final encryption tweaks for demo</t>
   </si>
 </sst>
 </file>
@@ -1200,11 +1206,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,6 +1780,34 @@
         <v>120</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>42612</v>
+      </c>
+      <c r="B43" s="23">
+        <v>1</v>
+      </c>
+      <c r="C43" s="23">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>42613</v>
+      </c>
+      <c r="B44" s="23">
+        <v>2</v>
+      </c>
+      <c r="C44" s="23">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1786,7 +1820,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,12 +2604,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C28" s="23">
         <f t="shared" si="0"/>
@@ -2588,15 +2622,15 @@
         <v>3</v>
       </c>
       <c r="F28" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C28)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,9 +4940,7 @@
   </sheetData>
   <autoFilter ref="A1:H302">
     <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="In Progress"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5004,45 +5036,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.88235294117647056</v>
+        <v>0.95294117647058818</v>
       </c>
       <c r="K2" s="16">
         <v>42527</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42610</v>
+        <v>42613</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>1.5660377358490567</v>
+        <v>1.6226415094339623</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.68368479467258614</v>
+        <v>-0.66970033296337417</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-36.235294117647065</v>
+        <v>-35.494117647058829</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5119,15 +5151,15 @@
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A7)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A7)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0.76923076923076927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -9828,30 +9860,30 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42610</v>
+        <v>42613</v>
       </c>
       <c r="M2" s="16">
         <v>42647</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.13953488372093023</v>
+        <v>0.20930232558139536</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.12258573117855735</v>
+        <v>-0.19235317303902247</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-5.2711864406779663</v>
+        <v>-8.2711864406779654</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -14638,18 +14670,18 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42610</v>
+        <v>42613</v>
       </c>
       <c r="M2" s="16">
         <v>42713</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>-37</v>
+        <v>-34</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
@@ -16560,47 +16592,47 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42610</v>
+        <v>42613</v>
       </c>
       <c r="O2" s="17">
         <v>42713</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.36024844720496896</v>
+        <v>0.37888198757763975</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-0.11580400276052452</v>
+        <v>-0.11538992408557625</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-18.644444444444449</v>
+        <v>-18.577777777777776</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <f>'Phase 1 Portfolio'!G2</f>
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="B3" s="32">
         <f>'Phase 1 Portfolio'!H2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="33">
         <f>'Phase 1 Portfolio'!I2</f>
-        <v>0.88235294117647056</v>
+        <v>0.95294117647058818</v>
       </c>
       <c r="E3" s="31">
         <f>'Phase 2 Portfolio'!G2</f>
@@ -16649,15 +16681,15 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>38.5</v>
+        <v>41.5</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.24444444444444444</v>
+        <v>0.2634920634920635</v>
       </c>
     </row>
   </sheetData>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phase 1 Tasks'!$A$1:$H$302</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Phase 2 Tasks'!$A$1:$H$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Phase 2 Tasks'!$A$1:$H$303</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Phase 3 Tasks'!$A$1:$H$302</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Set Up Vision Doc</t>
@@ -323,9 +320,6 @@
     <t>Revise Project Plan</t>
   </si>
   <si>
-    <t>Create Formal Specification</t>
-  </si>
-  <si>
     <t>Formal Specification</t>
   </si>
   <si>
@@ -405,6 +399,42 @@
   </si>
   <si>
     <t>Final encryption tweaks for demo</t>
+  </si>
+  <si>
+    <t>Email about feedback</t>
+  </si>
+  <si>
+    <t>Review Possilbe Revisions</t>
+  </si>
+  <si>
+    <t>Set Up Formal Spec</t>
+  </si>
+  <si>
+    <t>Set up and look at Use</t>
+  </si>
+  <si>
+    <t>Set Up Classes</t>
+  </si>
+  <si>
+    <t>Set Up Associations</t>
+  </si>
+  <si>
+    <t>Set Up Constraints</t>
+  </si>
+  <si>
+    <t>Working on Classes</t>
+  </si>
+  <si>
+    <t>Finishing up classes</t>
+  </si>
+  <si>
+    <t>Finish Associations</t>
+  </si>
+  <si>
+    <t>Decide on Constraints</t>
+  </si>
+  <si>
+    <t>Finish Constraints</t>
   </si>
 </sst>
 </file>
@@ -1206,11 +1236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,7 +1391,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,7 +1573,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,7 +1629,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,7 +1685,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,7 +1765,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,7 +1779,7 @@
         <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,7 +1821,7 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,7 +1835,141 @@
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>42614</v>
+      </c>
+      <c r="B45" s="23">
+        <v>1</v>
+      </c>
+      <c r="C45" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>42614</v>
+      </c>
+      <c r="B46" s="23">
+        <v>1</v>
+      </c>
+      <c r="C46" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>42618</v>
+      </c>
+      <c r="B47" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="23">
+        <v>31</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>42626</v>
+      </c>
+      <c r="B48" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="23">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>42626</v>
+      </c>
+      <c r="B49" s="23">
+        <v>1</v>
+      </c>
+      <c r="C49" s="23">
+        <v>42</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>42631</v>
+      </c>
+      <c r="B50" s="23">
+        <v>1</v>
+      </c>
+      <c r="C50" s="23">
+        <v>43</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>42632</v>
+      </c>
+      <c r="B51" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="23">
+        <v>43</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>42632</v>
+      </c>
+      <c r="B52" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="23">
+        <v>44</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>42632</v>
+      </c>
+      <c r="B53" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="23">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>42633</v>
+      </c>
+      <c r="B54" s="23">
+        <v>1</v>
+      </c>
+      <c r="C54" s="23">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1815,12 +1979,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,12 +2023,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -1888,12 +2051,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C34" si="0">C2+1</f>
@@ -1917,12 +2080,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
@@ -1946,12 +2109,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
@@ -1975,12 +2138,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
@@ -2006,7 +2169,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
@@ -2019,23 +2185,23 @@
         <v>1</v>
       </c>
       <c r="F7" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
@@ -2059,12 +2225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
@@ -2088,12 +2254,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
@@ -2117,12 +2283,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
@@ -2146,12 +2312,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
@@ -2175,12 +2341,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
@@ -2204,12 +2370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
@@ -2233,12 +2399,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="23">
         <f t="shared" si="0"/>
@@ -2262,12 +2428,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
@@ -2291,12 +2457,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
@@ -2320,12 +2486,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
@@ -2346,12 +2512,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
@@ -2375,12 +2541,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
@@ -2404,12 +2570,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="23">
         <f t="shared" si="0"/>
@@ -2433,12 +2599,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="23">
         <f t="shared" si="0"/>
@@ -2462,12 +2628,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="23">
         <f t="shared" si="0"/>
@@ -2491,12 +2657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="23">
         <f t="shared" si="0"/>
@@ -2520,12 +2686,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="23">
         <f t="shared" si="0"/>
@@ -2551,7 +2717,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="23">
         <f t="shared" si="0"/>
@@ -2564,23 +2733,23 @@
         <v>1</v>
       </c>
       <c r="F26" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 1 Tasks'!C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="23">
         <f t="shared" si="0"/>
@@ -2604,12 +2773,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="23">
         <f t="shared" si="0"/>
@@ -4938,11 +5107,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H302">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H302"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4954,7 +5119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4994,28 +5159,28 @@
         <v>13</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -5036,45 +5201,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>40.5</v>
+        <v>42.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.95294117647058818</v>
+        <v>1</v>
       </c>
       <c r="K2" s="16">
         <v>42527</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42613</v>
+        <v>42633</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="O2" s="5">
-        <f ca="1">M2-L2</f>
-        <v>-33</v>
+        <f ca="1">IF(M2-L2&gt;0,M2-L2,0)</f>
+        <v>0</v>
       </c>
       <c r="P2" s="28">
-        <f ca="1">N2/(N2+O2)</f>
-        <v>1.6226415094339623</v>
+        <f ca="1">IF(N2/(N2+O2)&gt;1,1,N2/(N2+O2))</f>
+        <v>1</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.66970033296337417</v>
+        <v>0</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-35.494117647058829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5134,15 +5299,15 @@
       </c>
       <c r="B6" s="5">
         <f>SUMIFS('Phase 1 Tasks'!G:G,'Phase 1 Tasks'!D:D,A6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
         <f>SUMIFS('Phase 1 Tasks'!F:F,'Phase 1 Tasks'!D:D,A6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -6881,7 +7046,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6923,10 +7088,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C2" s="21">
         <v>30</v>
@@ -6951,7 +7116,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C66" si="0">C2+1</f>
@@ -6964,20 +7132,23 @@
         <v>3</v>
       </c>
       <c r="F3" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C3)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="22">
         <f t="shared" ref="H3:H66" si="1">IF(F3+G3&gt;0,G3/(G3+F3),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
@@ -6990,53 +7161,56 @@
         <v>3</v>
       </c>
       <c r="F4" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C4)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C5)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="23">
         <v>5</v>
@@ -7055,14 +7229,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="23">
         <v>10</v>
@@ -7081,14 +7255,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="23">
         <v>2</v>
@@ -7107,14 +7281,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="23">
         <v>6</v>
@@ -7133,7 +7307,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
@@ -7159,7 +7333,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
@@ -7185,7 +7359,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
@@ -7211,7 +7385,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
@@ -7236,45 +7410,90 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
       </c>
       <c r="G14" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C14)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23">
         <v>0</v>
-      </c>
-      <c r="H14" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="23">
-        <f t="shared" si="0"/>
-        <v>43</v>
       </c>
       <c r="G15" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C15)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
         <v>0</v>
-      </c>
-      <c r="H15" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="23">
-        <f t="shared" si="0"/>
-        <v>44</v>
       </c>
       <c r="G16" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C16)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
@@ -9751,7 +9970,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H302"/>
+  <autoFilter ref="A1:H303"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9761,9 +9980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9803,28 +10022,28 @@
         <v>13</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -9845,45 +10064,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>1.6949152542372881E-2</v>
+        <v>0.12149532710280374</v>
       </c>
       <c r="K2" s="16">
         <v>42604</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42613</v>
+        <v>42633</v>
       </c>
       <c r="M2" s="16">
-        <v>42647</v>
+        <v>42649</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.20930232558139536</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.19235317303902247</v>
+        <v>-0.52294911734164073</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-8.2711864406779654</v>
+        <v>-23.532710280373834</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -9892,15 +10111,15 @@
       </c>
       <c r="B3" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A3)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D67" si="0">IF(C3+B3&gt;0,B3/(B3+C3),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -9909,37 +10128,37 @@
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A4)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A5)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C5" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5" si="1">IF(C5+B5&gt;0,B5/(B5+C5),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A6)</f>
@@ -9956,7 +10175,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A7)</f>
@@ -9973,7 +10192,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A8)</f>
@@ -11771,14 +11990,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="21">
         <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="21">
         <v>12</v>
@@ -11797,14 +12016,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C66" si="0">C2+1</f>
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="23">
         <v>25</v>
@@ -11823,14 +12042,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="23">
         <v>4</v>
@@ -11849,14 +12068,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="23">
         <v>4</v>
@@ -11875,14 +12094,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="23">
         <v>6</v>
@@ -11901,14 +12120,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="23">
         <v>1</v>
@@ -11927,7 +12146,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
@@ -11953,7 +12172,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
@@ -11979,7 +12198,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
@@ -14573,7 +14792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14613,28 +14832,28 @@
         <v>13</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -14666,22 +14885,22 @@
         <v>0</v>
       </c>
       <c r="K2" s="16">
-        <v>42647</v>
+        <v>42649</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42613</v>
+        <v>42633</v>
       </c>
       <c r="M2" s="16">
         <v>42713</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>-34</v>
+        <v>-16</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
@@ -14698,7 +14917,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A3)</f>
@@ -14715,7 +14934,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A4)</f>
@@ -14732,7 +14951,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A5)</f>
@@ -14749,7 +14968,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A6)</f>
@@ -14766,7 +14985,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A7)</f>
@@ -16504,7 +16723,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16517,51 +16736,51 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="E1" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="37"/>
       <c r="I1" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
       <c r="M1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -16570,7 +16789,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -16579,7 +16798,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>7</v>
@@ -16592,59 +16811,59 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42613</v>
+        <v>42633</v>
       </c>
       <c r="O2" s="17">
         <v>42713</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.37888198757763975</v>
+        <v>0.50310559006211175</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-0.11538992408557625</v>
+        <v>-0.18073716900948017</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-18.577777777777776</v>
+        <v>-29.098684210526308</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <f>'Phase 1 Portfolio'!G2</f>
-        <v>40.5</v>
+        <v>42.5</v>
       </c>
       <c r="B3" s="32">
         <f>'Phase 1 Portfolio'!H2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="33">
         <f>'Phase 1 Portfolio'!I2</f>
-        <v>0.95294117647058818</v>
+        <v>1</v>
       </c>
       <c r="E3" s="31">
         <f>'Phase 2 Portfolio'!G2</f>
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="F3" s="32">
         <f>'Phase 2 Portfolio'!H2</f>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G3" s="33">
         <f>'Phase 2 Portfolio'!I2</f>
-        <v>1.6949152542372881E-2</v>
+        <v>0.12149532710280374</v>
       </c>
       <c r="I3" s="31">
         <f>'Phase 3 Portfolio'!G2</f>
@@ -16662,14 +16881,14 @@
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>7</v>
@@ -16681,15 +16900,15 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>41.5</v>
+        <v>49</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.2634920634920635</v>
+        <v>0.32236842105263158</v>
       </c>
     </row>
   </sheetData>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="147">
   <si>
     <t>Date</t>
   </si>
@@ -323,12 +323,6 @@
     <t>Formal Specification</t>
   </si>
   <si>
-    <t>Create Architectural Design</t>
-  </si>
-  <si>
-    <t>Create Test Plan</t>
-  </si>
-  <si>
     <t>Create Inspection Checklist</t>
   </si>
   <si>
@@ -435,6 +429,54 @@
   </si>
   <si>
     <t>Finish Constraints</t>
+  </si>
+  <si>
+    <t>Set Up Architectural Design</t>
+  </si>
+  <si>
+    <t>Set up document</t>
+  </si>
+  <si>
+    <t>Finish Section 2</t>
+  </si>
+  <si>
+    <t>Finish Section 3</t>
+  </si>
+  <si>
+    <t>Finish Section 4</t>
+  </si>
+  <si>
+    <t>Finish Section 5</t>
+  </si>
+  <si>
+    <t>Finish Section 1</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Finished component diagram and interface specification</t>
+  </si>
+  <si>
+    <t>Finish section 2</t>
+  </si>
+  <si>
+    <t>Finish Document</t>
+  </si>
+  <si>
+    <t>Prep for Test Plan</t>
+  </si>
+  <si>
+    <t>Set Up Document</t>
+  </si>
+  <si>
+    <t>Finish Sections 1 - 8</t>
+  </si>
+  <si>
+    <t>Finish Section 9-11</t>
+  </si>
+  <si>
+    <t>Review Test plan document structure</t>
   </si>
 </sst>
 </file>
@@ -1236,19 +1278,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23"/>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="23"/>
     <col min="3" max="3" width="11" style="23" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1807,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,7 +1863,7 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,7 +1877,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,7 +1913,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,7 +1927,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,7 +1941,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,7 +1955,7 @@
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,7 +1983,7 @@
         <v>44</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,7 +1997,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1969,7 +2011,99 @@
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>42633</v>
+      </c>
+      <c r="B55" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="23">
+        <v>45</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>42637</v>
+      </c>
+      <c r="B56" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="C56" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>42637</v>
+      </c>
+      <c r="B57" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C57" s="23">
+        <v>46</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>42638</v>
+      </c>
+      <c r="B58" s="23">
+        <v>1</v>
+      </c>
+      <c r="C58" s="23">
+        <v>46</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>42638</v>
+      </c>
+      <c r="B59" s="23">
+        <v>1</v>
+      </c>
+      <c r="C59" s="23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>42646</v>
+      </c>
+      <c r="B60" s="23">
+        <v>2</v>
+      </c>
+      <c r="C60" s="23">
+        <v>48</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>42646</v>
+      </c>
+      <c r="B61" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C61" s="23">
+        <v>35</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1988,13 +2122,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="24" customWidth="1"/>
-    <col min="9" max="10" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.75" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="24" customWidth="1"/>
+    <col min="9" max="10" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5124,16 +5258,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="4"/>
+    <col min="5" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5216,14 +5350,14 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42633</v>
+        <v>42646</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">IF(M2-L2&gt;0,M2-L2,0)</f>
@@ -7044,20 +7178,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="24" customWidth="1"/>
-    <col min="9" max="10" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.75" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="24" customWidth="1"/>
+    <col min="9" max="10" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7174,7 +7308,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>38</v>
@@ -7202,34 +7336,31 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E6" s="23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H6" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>142</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
@@ -7239,23 +7370,23 @@
         <v>88</v>
       </c>
       <c r="E7" s="23">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C7)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
@@ -7281,7 +7412,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
@@ -7291,10 +7422,10 @@
         <v>89</v>
       </c>
       <c r="E9" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C9)</f>
@@ -7307,7 +7438,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
@@ -7317,10 +7448,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F10" s="23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G10" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C10)</f>
@@ -7333,7 +7464,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
@@ -7343,10 +7474,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C11)</f>
@@ -7369,10 +7500,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C12)</f>
@@ -7385,7 +7516,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
@@ -7411,7 +7542,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>38</v>
@@ -7440,7 +7571,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>38</v>
@@ -7469,7 +7600,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>38</v>
@@ -7496,66 +7627,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
       </c>
       <c r="G17" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="23">
         <v>0</v>
-      </c>
-      <c r="H17" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="23">
-        <f t="shared" si="0"/>
-        <v>46</v>
       </c>
       <c r="G18" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C18)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23">
         <v>0</v>
-      </c>
-      <c r="H18" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="23">
-        <f t="shared" si="0"/>
-        <v>47</v>
       </c>
       <c r="G19" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C19)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="23">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23">
         <v>0</v>
-      </c>
-      <c r="H19" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="23">
-        <f t="shared" si="0"/>
-        <v>48</v>
       </c>
       <c r="G20" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C20)</f>
+        <v>2</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="23">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23">
         <v>0</v>
-      </c>
-      <c r="H20" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="23">
-        <f t="shared" si="0"/>
-        <v>49</v>
       </c>
       <c r="G21" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C21)</f>
@@ -7566,64 +7772,123 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0</v>
       </c>
       <c r="G22" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C22)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C23" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.5</v>
       </c>
       <c r="G23" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C23)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C24" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
       <c r="G24" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C24)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="22" t="str">
+      <c r="H24" s="22">
         <f>IF(F24+G24&gt;0,G24/(G24+F24),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C25" s="23">
         <f t="shared" si="0"/>
         <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="23">
+        <v>2</v>
       </c>
       <c r="G25" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C25)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7637,7 +7902,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="23">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -7651,7 +7916,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="23">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7665,7 +7930,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="23">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7675,7 +7940,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="23">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -7685,7 +7950,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="23">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -7695,7 +7960,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -9980,23 +10245,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="4"/>
+    <col min="5" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10064,45 +10329,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>6.5</v>
+        <v>13.25</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.12149532710280374</v>
+        <v>0.39849624060150374</v>
       </c>
       <c r="K2" s="16">
         <v>42604</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42633</v>
+        <v>42646</v>
       </c>
       <c r="M2" s="16">
-        <v>42649</v>
+        <v>42661</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.64444444444444449</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.52294911734164073</v>
+        <v>-0.33834586466165412</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-23.532710280373834</v>
+        <v>-19.285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -10162,15 +10427,15 @@
       </c>
       <c r="B6" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A6)</f>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="C6" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -10179,15 +10444,15 @@
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A7)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A7)</f>
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -10200,7 +10465,7 @@
       </c>
       <c r="C8" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A8)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -10217,7 +10482,7 @@
       </c>
       <c r="C9" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A9)</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
@@ -10234,7 +10499,7 @@
       </c>
       <c r="C10" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A10)</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -11953,13 +12218,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="24" customWidth="1"/>
-    <col min="9" max="10" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.75" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="24" customWidth="1"/>
+    <col min="9" max="10" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11990,14 +12255,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="21">
         <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" s="21">
         <v>12</v>
@@ -12016,14 +12281,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C66" si="0">C2+1</f>
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" s="23">
         <v>25</v>
@@ -12042,14 +12307,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="23">
         <v>4</v>
@@ -12068,14 +12333,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="23">
         <v>4</v>
@@ -12094,14 +12359,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="23">
         <v>6</v>
@@ -12120,14 +12385,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="23">
         <v>1</v>
@@ -12146,7 +12411,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
@@ -14797,16 +15062,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="4"/>
+    <col min="5" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14889,18 +15154,18 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42633</v>
+        <v>42646</v>
       </c>
       <c r="M2" s="16">
         <v>42713</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>-16</v>
+        <v>-3</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
@@ -14917,7 +15182,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A3)</f>
@@ -14934,7 +15199,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A4)</f>
@@ -14951,7 +15216,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A5)</f>
@@ -14968,7 +15233,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A6)</f>
@@ -14985,7 +15250,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A7)</f>
@@ -16728,25 +16993,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="15" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="13" max="15" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.25" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="E1" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="37"/>
       <c r="I1" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
@@ -16754,7 +17019,7 @@
         <v>49</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>51</v>
@@ -16763,7 +17028,7 @@
         <v>48</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>52</v>
@@ -16811,33 +17076,33 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42633</v>
+        <v>42646</v>
       </c>
       <c r="O2" s="17">
         <v>42713</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.50310559006211175</v>
+        <v>0.58385093167701863</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-0.18073716900948017</v>
+        <v>-0.16070102655367896</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-29.098684210526308</v>
+        <v>-25.872865275142313</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16855,15 +17120,15 @@
       </c>
       <c r="E3" s="31">
         <f>'Phase 2 Portfolio'!G2</f>
-        <v>6.5</v>
+        <v>13.25</v>
       </c>
       <c r="F3" s="32">
         <f>'Phase 2 Portfolio'!H2</f>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G3" s="33">
         <f>'Phase 2 Portfolio'!I2</f>
-        <v>0.12149532710280374</v>
+        <v>0.39849624060150374</v>
       </c>
       <c r="I3" s="31">
         <f>'Phase 3 Portfolio'!G2</f>
@@ -16881,7 +17146,7 @@
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -16900,15 +17165,15 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>49</v>
+        <v>55.75</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.32236842105263158</v>
+        <v>0.42314990512333966</v>
       </c>
     </row>
   </sheetData>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="148">
   <si>
     <t>Date</t>
   </si>
@@ -452,9 +452,6 @@
     <t>Finish Section 1</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Finished component diagram and interface specification</t>
   </si>
   <si>
@@ -477,6 +474,12 @@
   </si>
   <si>
     <t>Review Test plan document structure</t>
+  </si>
+  <si>
+    <t>Finish Set UP</t>
+  </si>
+  <si>
+    <t>Finish sections 1-8</t>
   </si>
 </sst>
 </file>
@@ -1278,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2053,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,7 +2106,49 @@
         <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>42647</v>
+      </c>
+      <c r="B62" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="23">
+        <v>51</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>42653</v>
+      </c>
+      <c r="B63" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C63" s="23">
+        <v>52</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>42654</v>
+      </c>
+      <c r="B64" s="23">
+        <v>1</v>
+      </c>
+      <c r="C64" s="23">
+        <v>53</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5350,14 +5395,14 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42646</v>
+        <v>42654</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">IF(M2-L2&gt;0,M2-L2,0)</f>
@@ -7178,9 +7223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7357,7 +7402,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>38</v>
@@ -7803,10 +7848,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C23" s="23">
         <f t="shared" si="0"/>
@@ -7819,23 +7864,23 @@
         <v>0.5</v>
       </c>
       <c r="F23" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C23)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C24" s="23">
         <f t="shared" si="0"/>
@@ -7848,23 +7893,23 @@
         <v>1</v>
       </c>
       <c r="F24" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H24" s="22">
         <f>IF(F24+G24&gt;0,G24/(G24+F24),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C25" s="23">
         <f t="shared" si="0"/>
@@ -7877,15 +7922,15 @@
         <v>2</v>
       </c>
       <c r="F25" s="23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -10245,9 +10290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10329,45 +10374,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>13.25</v>
+        <v>16.25</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.39849624060150374</v>
+        <v>0.49618320610687022</v>
       </c>
       <c r="K2" s="16">
         <v>42604</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42646</v>
+        <v>42654</v>
       </c>
       <c r="M2" s="16">
-        <v>42661</v>
+        <v>42667</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.73684210526315785</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.33834586466165412</v>
+        <v>-0.29746758754392338</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-19.285714285714285</v>
+        <v>-18.740458015267173</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -10444,15 +10489,15 @@
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A7)</f>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="C7" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A7)</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -15057,7 +15102,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15150,22 +15195,22 @@
         <v>0</v>
       </c>
       <c r="K2" s="16">
-        <v>42649</v>
+        <v>42667</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42646</v>
+        <v>42654</v>
       </c>
       <c r="M2" s="16">
         <v>42713</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
@@ -16988,7 +17033,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17076,33 +17121,33 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42646</v>
+        <v>42654</v>
       </c>
       <c r="O2" s="17">
         <v>42713</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.58385093167701863</v>
+        <v>0.63354037267080743</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-0.16070102655367896</v>
+        <v>-0.18592132505175979</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-25.872865275142313</v>
+        <v>-29.933333333333326</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17120,15 +17165,15 @@
       </c>
       <c r="E3" s="31">
         <f>'Phase 2 Portfolio'!G2</f>
-        <v>13.25</v>
+        <v>16.25</v>
       </c>
       <c r="F3" s="32">
         <f>'Phase 2 Portfolio'!H2</f>
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="G3" s="33">
         <f>'Phase 2 Portfolio'!I2</f>
-        <v>0.39849624060150374</v>
+        <v>0.49618320610687022</v>
       </c>
       <c r="I3" s="31">
         <f>'Phase 3 Portfolio'!G2</f>
@@ -17165,15 +17210,15 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>55.75</v>
+        <v>58.75</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
-        <v>76</v>
+        <v>72.5</v>
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.42314990512333966</v>
+        <v>0.44761904761904764</v>
       </c>
     </row>
   </sheetData>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Formal Specification</t>
   </si>
   <si>
-    <t>Create Inspection Checklist</t>
-  </si>
-  <si>
     <t>Perform Inspection</t>
   </si>
   <si>
@@ -480,6 +477,36 @@
   </si>
   <si>
     <t>Finish sections 1-8</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Finished document set up</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Set Up Presentation</t>
+  </si>
+  <si>
+    <t>Finish Presentation</t>
+  </si>
+  <si>
+    <t>Finished setup/prep</t>
+  </si>
+  <si>
+    <t>Creating Presentation</t>
+  </si>
+  <si>
+    <t>Studied up on classes and modules, build user classes</t>
+  </si>
+  <si>
+    <t>Setting up console control flow</t>
+  </si>
+  <si>
+    <t>Finish conosle code for users</t>
   </si>
 </sst>
 </file>
@@ -1281,11 +1308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,7 +1893,7 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,7 +1907,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,7 +1971,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,7 +1985,7 @@
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,7 +1999,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,7 +2013,7 @@
         <v>44</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,7 +2027,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,7 +2041,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,7 +2055,7 @@
         <v>45</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,7 +2080,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,7 +2094,7 @@
         <v>46</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,7 +2119,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,7 +2133,7 @@
         <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,7 +2161,7 @@
         <v>52</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,6 +2176,104 @@
       </c>
       <c r="D64" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>42659</v>
+      </c>
+      <c r="B65" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="C65" s="23">
+        <v>54</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>42659</v>
+      </c>
+      <c r="B66" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="23">
+        <v>55</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>42661</v>
+      </c>
+      <c r="B67" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="C67" s="23">
+        <v>56</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>42661</v>
+      </c>
+      <c r="B68" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C68" s="23">
+        <v>57</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>42664</v>
+      </c>
+      <c r="B69" s="23">
+        <v>2</v>
+      </c>
+      <c r="C69" s="23">
+        <v>38</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>42665</v>
+      </c>
+      <c r="B70" s="23">
+        <v>2</v>
+      </c>
+      <c r="C70" s="23">
+        <v>38</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>42666</v>
+      </c>
+      <c r="B71" s="23">
+        <v>6</v>
+      </c>
+      <c r="C71" s="23">
+        <v>38</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5395,14 +5520,14 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42654</v>
+        <v>42666</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">IF(M2-L2&gt;0,M2-L2,0)</f>
@@ -7225,7 +7350,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7353,7 +7478,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>38</v>
@@ -7402,7 +7527,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>38</v>
@@ -7430,34 +7555,25 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="23">
-        <v>2</v>
-      </c>
-      <c r="F8" s="23">
-        <v>2</v>
       </c>
       <c r="G8" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H8" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
@@ -7467,23 +7583,26 @@
         <v>89</v>
       </c>
       <c r="E9" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
@@ -7496,47 +7615,38 @@
         <v>8</v>
       </c>
       <c r="F10" s="23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
         <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1</v>
       </c>
       <c r="G11" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H11" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B12" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7561,7 +7671,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
@@ -7587,7 +7700,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>38</v>
@@ -7616,7 +7729,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>38</v>
@@ -7645,7 +7758,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>38</v>
@@ -7674,7 +7787,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>38</v>
@@ -7703,7 +7816,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>38</v>
@@ -7732,7 +7845,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>38</v>
@@ -7761,7 +7874,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>38</v>
@@ -7790,7 +7903,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>38</v>
@@ -7819,7 +7932,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -7848,7 +7961,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>38</v>
@@ -7877,7 +7990,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>38</v>
@@ -7906,7 +8019,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>38</v>
@@ -7934,55 +8047,119 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C26" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
       <c r="G26" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C26)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23">
         <v>0</v>
-      </c>
-      <c r="H26" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="23">
-        <f t="shared" si="0"/>
-        <v>55</v>
       </c>
       <c r="G27" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C27)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="23">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="23">
         <v>0</v>
-      </c>
-      <c r="H27" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="23">
-        <f t="shared" si="0"/>
-        <v>56</v>
       </c>
       <c r="G28" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C28)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="C29" s="23">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="H29" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C29)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="22">
+        <f t="shared" ref="H29:H32" si="2">IF(F29+G29&gt;0,G29/(G29+F29),"")</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -7990,8 +8167,12 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
+      <c r="G30" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C30)</f>
+        <v>0</v>
+      </c>
       <c r="H30" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8000,8 +8181,12 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
+      <c r="G31" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C31)</f>
+        <v>0</v>
+      </c>
       <c r="H31" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8010,8 +8195,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="G32" s="21">
+        <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C32)</f>
+        <v>0</v>
+      </c>
       <c r="H32" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8357,1925 +8546,1925 @@
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="23">
-        <f t="shared" ref="C67:C130" si="2">C66+1</f>
+        <f t="shared" ref="C67:C130" si="3">C66+1</f>
         <v>95</v>
       </c>
       <c r="H67" s="22" t="str">
-        <f t="shared" ref="H67:H130" si="3">IF(F67+G67&gt;0,G67/(G67+F67),"")</f>
+        <f t="shared" ref="H67:H130" si="4">IF(F67+G67&gt;0,G67/(G67+F67),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="H68" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="H69" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="H70" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="H71" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H72" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="H73" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="H74" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="H75" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="H76" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="H77" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="H78" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="H79" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="H80" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="H81" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="H82" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="H83" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="H84" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="H85" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="H86" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="H87" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="H88" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="H89" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="H90" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="H91" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="H92" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="H93" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="H94" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="H95" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="H96" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="H97" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="H98" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="H99" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="H100" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="H101" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="H102" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="H103" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="H104" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="H105" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="H106" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="H107" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="H108" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="H109" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="H110" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="H111" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="H112" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="H113" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="H114" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="H115" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="H116" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="H117" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="H118" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="H119" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="H120" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="H121" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="H122" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="H123" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="H124" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="H125" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="H126" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="H127" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="H128" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="H129" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
       <c r="H130" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="23">
-        <f t="shared" ref="C131:C193" si="4">C130+1</f>
+        <f t="shared" ref="C131:C193" si="5">C130+1</f>
         <v>159</v>
       </c>
       <c r="H131" s="22" t="str">
-        <f t="shared" ref="H131:H194" si="5">IF(F131+G131&gt;0,G131/(G131+F131),"")</f>
+        <f t="shared" ref="H131:H194" si="6">IF(F131+G131&gt;0,G131/(G131+F131),"")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H132" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>161</v>
       </c>
       <c r="H133" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="H134" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="H135" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="H136" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="H137" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="H138" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="H139" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="H140" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="H141" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H142" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="H143" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="H144" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="H145" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="H146" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="H147" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176</v>
       </c>
       <c r="H148" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="H149" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="H150" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="H151" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="H152" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="H153" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="H154" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="H155" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>184</v>
       </c>
       <c r="H156" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H157" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="H158" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
       <c r="H159" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>188</v>
       </c>
       <c r="H160" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="H161" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="H162" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="H163" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="H164" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="H165" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
       <c r="H166" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="H167" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="H168" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>197</v>
       </c>
       <c r="H169" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="H170" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="H171" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H172" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>201</v>
       </c>
       <c r="H173" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202</v>
       </c>
       <c r="H174" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
       <c r="H175" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
       <c r="H176" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C177" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>205</v>
       </c>
       <c r="H177" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C178" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>206</v>
       </c>
       <c r="H178" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C179" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>207</v>
       </c>
       <c r="H179" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C180" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>208</v>
       </c>
       <c r="H180" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C181" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>209</v>
       </c>
       <c r="H181" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C182" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="H182" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C183" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>211</v>
       </c>
       <c r="H183" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C184" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>212</v>
       </c>
       <c r="H184" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C185" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>213</v>
       </c>
       <c r="H185" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C186" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>214</v>
       </c>
       <c r="H186" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C187" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H187" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C188" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>216</v>
       </c>
       <c r="H188" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C189" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>217</v>
       </c>
       <c r="H189" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C190" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>218</v>
       </c>
       <c r="H190" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C191" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="H191" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C192" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="H192" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C193" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>221</v>
       </c>
       <c r="H193" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H194" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H195" s="22" t="str">
-        <f t="shared" ref="H195:H258" si="6">IF(F195+G195&gt;0,G195/(G195+F195),"")</f>
+        <f t="shared" ref="H195:H258" si="7">IF(F195+G195&gt;0,G195/(G195+F195),"")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H196" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H197" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H198" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H199" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H200" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H201" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H202" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H203" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H204" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H205" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H206" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H207" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H208" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H213" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H214" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H215" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H216" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H217" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H218" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H219" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H220" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H221" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H222" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H223" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H224" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H225" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H226" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H227" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H228" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H229" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H230" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H231" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H232" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H233" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H234" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H235" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H236" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H237" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H238" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H239" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H240" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H241" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H242" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H243" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H244" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H245" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H246" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H247" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H248" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H249" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H250" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H251" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H252" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H253" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H254" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H255" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H256" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H257" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H258" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H259" s="22" t="str">
-        <f t="shared" ref="H259:H280" si="7">IF(F259+G259&gt;0,G259/(G259+F259),"")</f>
+        <f t="shared" ref="H259:H280" si="8">IF(F259+G259&gt;0,G259/(G259+F259),"")</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H260" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H261" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H262" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H263" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H264" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H265" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H266" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H267" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H268" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H269" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H270" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H271" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H272" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H273" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H274" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H275" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H276" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H277" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H278" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H279" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H280" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H281" s="24" t="str">
-        <f t="shared" ref="H281:H302" si="8">IF(F281&gt;0,G281/(G281+F281),"")</f>
+        <f t="shared" ref="H281:H302" si="9">IF(F281&gt;0,G281/(G281+F281),"")</f>
         <v/>
       </c>
     </row>
     <row r="282" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H282" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H283" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H284" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H285" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H286" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H287" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H288" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H289" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H290" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H291" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H292" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H293" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H294" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H295" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H296" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H297" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H298" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H299" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H300" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H301" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H302" s="24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10290,9 +10479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10374,45 +10563,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>16.25</v>
+        <v>28.75</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>16.5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.49618320610687022</v>
+        <v>0.93495934959349591</v>
       </c>
       <c r="K2" s="16">
         <v>42604</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42654</v>
+        <v>42666</v>
       </c>
       <c r="M2" s="16">
         <v>42667</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.79365079365079361</v>
+        <v>0.98412698412698407</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.29746758754392338</v>
+        <v>-4.9167634533488158E-2</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-18.740458015267173</v>
+        <v>-3.097560975609754</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -10506,15 +10695,15 @@
       </c>
       <c r="B8" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A8)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C8" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A8)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -10523,15 +10712,15 @@
       </c>
       <c r="B9" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A9)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A9)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -10540,15 +10729,15 @@
       </c>
       <c r="B10" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A10)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="C10" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A10)</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -12258,7 +12447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12300,20 +12489,20 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="21">
         <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C2)</f>
@@ -12326,20 +12515,20 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C66" si="0">C2+1</f>
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F3" s="23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C3)</f>
@@ -12352,14 +12541,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="23">
         <v>4</v>
@@ -12378,14 +12567,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="23">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="23">
         <v>4</v>
@@ -12404,14 +12593,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="23">
         <v>6</v>
@@ -12430,14 +12619,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="23">
         <v>1</v>
@@ -12456,7 +12645,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
@@ -15188,7 +15377,7 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
@@ -15199,18 +15388,18 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42654</v>
+        <v>42666</v>
       </c>
       <c r="M2" s="16">
         <v>42713</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
@@ -15227,7 +15416,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A3)</f>
@@ -15235,7 +15424,7 @@
       </c>
       <c r="C3" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A3)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D65" si="0">IF(C3+B3&gt;0,B3/(B3+C3),"")</f>
@@ -15244,7 +15433,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A4)</f>
@@ -15252,7 +15441,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A4)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -15261,7 +15450,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A5)</f>
@@ -15278,7 +15467,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A6)</f>
@@ -15295,7 +15484,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A7)</f>
@@ -17032,7 +17221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -17046,17 +17235,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="E1" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="37"/>
       <c r="I1" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
@@ -17064,7 +17253,7 @@
         <v>49</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>51</v>
@@ -17073,7 +17262,7 @@
         <v>48</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>52</v>
@@ -17121,33 +17310,33 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42654</v>
+        <v>42666</v>
       </c>
       <c r="O2" s="17">
         <v>42713</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.63354037267080743</v>
+        <v>0.70807453416149069</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-0.18592132505175979</v>
+        <v>-0.12525244827192017</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-29.933333333333326</v>
+        <v>-20.165644171779146</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17165,15 +17354,15 @@
       </c>
       <c r="E3" s="31">
         <f>'Phase 2 Portfolio'!G2</f>
-        <v>16.25</v>
+        <v>28.75</v>
       </c>
       <c r="F3" s="32">
         <f>'Phase 2 Portfolio'!H2</f>
-        <v>16.5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="33">
         <f>'Phase 2 Portfolio'!I2</f>
-        <v>0.49618320610687022</v>
+        <v>0.93495934959349591</v>
       </c>
       <c r="I3" s="31">
         <f>'Phase 3 Portfolio'!G2</f>
@@ -17181,7 +17370,7 @@
       </c>
       <c r="J3" s="32">
         <f>'Phase 3 Portfolio'!H2</f>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K3" s="33">
         <f>'Phase 3 Portfolio'!I2</f>
@@ -17191,7 +17380,7 @@
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -17210,15 +17399,15 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>58.75</v>
+        <v>71.25</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
-        <v>72.5</v>
+        <v>51</v>
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.44761904761904764</v>
+        <v>0.58282208588957052</v>
       </c>
     </row>
   </sheetData>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>Finish conosle code for users</t>
+  </si>
+  <si>
+    <t>Finish presentation</t>
+  </si>
+  <si>
+    <t>Finish Prep</t>
   </si>
 </sst>
 </file>
@@ -1308,11 +1314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,6 +2280,48 @@
       </c>
       <c r="D71" s="2" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>42666</v>
+      </c>
+      <c r="B72" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="23">
+        <v>57</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>42667</v>
+      </c>
+      <c r="B73" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C73" s="23">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <v>42667</v>
+      </c>
+      <c r="B74" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="C74" s="23">
+        <v>41</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5520,14 +5568,14 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42666</v>
+        <v>42667</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">IF(M2-L2&gt;0,M2-L2,0)</f>
@@ -7350,7 +7398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7645,7 +7693,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
@@ -7658,15 +7706,15 @@
         <v>0.5</v>
       </c>
       <c r="F12" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C12)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7687,15 +7735,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C13)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8138,7 +8186,7 @@
         <v>151</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="C29" s="23">
         <f t="shared" si="0"/>
@@ -8151,15 +8199,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G29" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 2 Tasks'!C29)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" ref="H29:H32" si="2">IF(F29+G29&gt;0,G29/(G29+F29),"")</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -10479,7 +10527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
@@ -10563,45 +10611,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>28.75</v>
+        <v>30.5</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.93495934959349591</v>
+        <v>1</v>
       </c>
       <c r="K2" s="16">
         <v>42604</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42666</v>
+        <v>42667</v>
       </c>
       <c r="M2" s="16">
         <v>42667</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>0.98412698412698407</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-4.9167634533488158E-2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-3.097560975609754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -10729,15 +10777,15 @@
       </c>
       <c r="B10" s="5">
         <f>SUMIFS('Phase 2 Tasks'!G:G,'Phase 2 Tasks'!D:D,A10)</f>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="C10" s="5">
         <f>SUMIFS('Phase 2 Tasks'!F:F,'Phase 2 Tasks'!D:D,A10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -15388,18 +15436,18 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42666</v>
+        <v>42667</v>
       </c>
       <c r="M2" s="16">
         <v>42713</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
@@ -17221,7 +17269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -17310,33 +17358,33 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42666</v>
+        <v>42667</v>
       </c>
       <c r="O2" s="17">
         <v>42713</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.70807453416149069</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-0.12525244827192017</v>
+        <v>-0.11592505854800939</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-20.165644171779146</v>
+        <v>-18.66393442622951</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17354,15 +17402,15 @@
       </c>
       <c r="E3" s="31">
         <f>'Phase 2 Portfolio'!G2</f>
-        <v>28.75</v>
+        <v>30.5</v>
       </c>
       <c r="F3" s="32">
         <f>'Phase 2 Portfolio'!H2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="33">
         <f>'Phase 2 Portfolio'!I2</f>
-        <v>0.93495934959349591</v>
+        <v>1</v>
       </c>
       <c r="I3" s="31">
         <f>'Phase 3 Portfolio'!G2</f>
@@ -17399,15 +17447,15 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>71.25</v>
+        <v>73</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.58282208588957052</v>
+        <v>0.59836065573770492</v>
       </c>
     </row>
   </sheetData>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -1314,19 +1314,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="23"/>
+    <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="3" width="11" style="23" customWidth="1"/>
-    <col min="4" max="4" width="59.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2322,6 +2322,83 @@
       </c>
       <c r="D74" s="2" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <v>42679</v>
+      </c>
+      <c r="B75" s="23">
+        <v>1</v>
+      </c>
+      <c r="C75" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>42681</v>
+      </c>
+      <c r="B76" s="23">
+        <v>1</v>
+      </c>
+      <c r="C76" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <v>42682</v>
+      </c>
+      <c r="B77" s="23">
+        <v>2</v>
+      </c>
+      <c r="C77" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
+        <v>42685</v>
+      </c>
+      <c r="B78" s="23">
+        <v>4</v>
+      </c>
+      <c r="C78" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <v>42687</v>
+      </c>
+      <c r="B79" s="23">
+        <v>2</v>
+      </c>
+      <c r="C79" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
+        <v>42693</v>
+      </c>
+      <c r="B80" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C80" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <v>42694</v>
+      </c>
+      <c r="B81" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C81" s="23">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2340,13 +2417,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.75" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="24" customWidth="1"/>
-    <col min="9" max="10" width="4.75" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="24" customWidth="1"/>
+    <col min="9" max="10" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5476,16 +5553,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="4"/>
-    <col min="5" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5568,14 +5645,14 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42667</v>
+        <v>42695</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">IF(M2-L2&gt;0,M2-L2,0)</f>
@@ -7403,13 +7480,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.75" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="24" customWidth="1"/>
-    <col min="9" max="10" width="4.75" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="24" customWidth="1"/>
+    <col min="9" max="10" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10527,23 +10604,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="4"/>
-    <col min="5" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10626,30 +10703,30 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42667</v>
+        <v>42695</v>
       </c>
       <c r="M2" s="16">
         <v>42667</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>1</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>0</v>
+        <v>-0.44444444444444442</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>0</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -12495,18 +12572,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.75" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="24" customWidth="1"/>
-    <col min="9" max="10" width="4.75" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="24" customWidth="1"/>
+    <col min="9" max="10" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12547,10 +12624,10 @@
         <v>99</v>
       </c>
       <c r="E2" s="21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" s="21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C2)</f>
@@ -12565,6 +12642,9 @@
       <c r="A3" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="B3" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C66" si="0">C2+1</f>
         <v>71</v>
@@ -12573,18 +12653,18 @@
         <v>100</v>
       </c>
       <c r="E3" s="23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3" s="23">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G3" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C3)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H3" s="22">
         <f t="shared" ref="H3:H66" si="1">IF(F3+G3&gt;0,G3/(G3+F3),"")</f>
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -12651,10 +12731,10 @@
         <v>102</v>
       </c>
       <c r="E6" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C6)</f>
@@ -15339,21 +15419,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="4"/>
-    <col min="5" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15421,45 +15501,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="K2" s="16">
         <v>42667</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42667</v>
+        <v>42695</v>
       </c>
       <c r="M2" s="16">
         <v>42713</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
-        <v>0</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>0</v>
+        <v>-0.23726708074534164</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>0</v>
+        <v>-10.914285714285715</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -15472,7 +15552,7 @@
       </c>
       <c r="C3" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A3)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D65" si="0">IF(C3+B3&gt;0,B3/(B3+C3),"")</f>
@@ -15485,15 +15565,15 @@
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A4)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A4)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -15523,7 +15603,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A6)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
@@ -17270,15 +17350,15 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="15" width="12.75" customWidth="1"/>
-    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.25" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="13" max="15" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17358,33 +17438,33 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42667</v>
+        <v>42695</v>
       </c>
       <c r="O2" s="17">
         <v>42713</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.7142857142857143</v>
+        <v>0.88819875776397517</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-0.11592505854800939</v>
+        <v>-9.1902461467678886E-2</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-18.66393442622951</v>
+        <v>-14.796296296296301</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17414,15 +17494,15 @@
       </c>
       <c r="I3" s="31">
         <f>'Phase 3 Portfolio'!G2</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J3" s="32">
         <f>'Phase 3 Portfolio'!H2</f>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="K3" s="33">
         <f>'Phase 3 Portfolio'!I2</f>
-        <v>0</v>
+        <v>0.37142857142857144</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17447,15 +17527,15 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.59836065573770492</v>
+        <v>0.79629629629629628</v>
       </c>
     </row>
   </sheetData>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>Finish Prep</t>
+  </si>
+  <si>
+    <t>Get techinical Inspection completed</t>
+  </si>
+  <si>
+    <t>Prep and send out inspection and review Blakes</t>
   </si>
 </sst>
 </file>
@@ -1314,11 +1320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomLeft" activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>42694</v>
       </c>
@@ -2399,6 +2405,31 @@
       </c>
       <c r="C81" s="23">
         <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
+        <v>42695</v>
+      </c>
+      <c r="B82" s="23">
+        <v>1</v>
+      </c>
+      <c r="C82" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="17">
+        <v>42697</v>
+      </c>
+      <c r="B83" s="23">
+        <v>2</v>
+      </c>
+      <c r="C83" s="23">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5645,14 +5676,14 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42695</v>
+        <v>42697</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">IF(M2-L2&gt;0,M2-L2,0)</f>
@@ -10703,30 +10734,30 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42695</v>
+        <v>42697</v>
       </c>
       <c r="M2" s="16">
         <v>42667</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>1.4444444444444444</v>
+        <v>1.4761904761904763</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.44444444444444442</v>
+        <v>-0.47619047619047628</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-28</v>
+        <v>-30.000000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -12572,7 +12603,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12656,15 +12687,15 @@
         <v>10</v>
       </c>
       <c r="F3" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C3)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="22">
         <f t="shared" ref="H3:H66" si="1">IF(F3+G3&gt;0,G3/(G3+F3),"")</f>
-        <v>0.8666666666666667</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -12850,17 +12881,29 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
         <v>79</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="23">
+        <v>3</v>
+      </c>
+      <c r="F11" s="23">
+        <v>1</v>
       </c>
       <c r="G11" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -15419,7 +15462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15501,7 +15544,7 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
@@ -15509,37 +15552,37 @@
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.37142857142857144</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="K2" s="16">
         <v>42667</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42695</v>
+        <v>42697</v>
       </c>
       <c r="M2" s="16">
         <v>42713</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
-        <v>0.60869565217391308</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.23726708074534164</v>
+        <v>-0.23112128146453093</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-10.914285714285715</v>
+        <v>-10.631578947368423</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -15565,15 +15608,15 @@
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A4)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -15645,9 +15688,20 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A9)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A9)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" ref="D9" si="1">IF(C9+B9&gt;0,B9/(B9+C9),"")</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -15988,1339 +16042,1339 @@
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="11" t="str">
-        <f t="shared" ref="D66:D129" si="1">IF(C66+B66&gt;0,B66/(B66+C66),"")</f>
+        <f t="shared" ref="D66:D129" si="2">IF(C66+B66&gt;0,B66/(B66+C66),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="11" t="str">
-        <f t="shared" ref="D130:D170" si="2">IF(C130+B130&gt;0,B130/(B130+C130),"")</f>
+        <f t="shared" ref="D130:D170" si="3">IF(C130+B130&gt;0,B130/(B130+C130),"")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="4" t="str">
-        <f t="shared" ref="D171:D234" si="3">IF(C171&gt;0,B171/(B171+C171),"")</f>
+        <f t="shared" ref="D171:D234" si="4">IF(C171&gt;0,B171/(B171+C171),"")</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" s="4" t="str">
-        <f t="shared" ref="D235:D288" si="4">IF(C235&gt;0,B235/(B235+C235),"")</f>
+        <f t="shared" ref="D235:D288" si="5">IF(C235&gt;0,B235/(B235+C235),"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17438,33 +17492,33 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42695</v>
+        <v>42697</v>
       </c>
       <c r="O2" s="17">
         <v>42713</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.88819875776397517</v>
+        <v>0.90062111801242239</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-9.1902461467678886E-2</v>
+        <v>-9.8819316210620567E-2</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-14.796296296296301</v>
+        <v>-15.909909909909912</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17494,7 +17548,7 @@
       </c>
       <c r="I3" s="31">
         <f>'Phase 3 Portfolio'!G2</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="32">
         <f>'Phase 3 Portfolio'!H2</f>
@@ -17502,7 +17556,7 @@
       </c>
       <c r="K3" s="33">
         <f>'Phase 3 Portfolio'!I2</f>
-        <v>0.37142857142857144</v>
+        <v>0.42105263157894735</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17527,7 +17581,7 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
@@ -17535,7 +17589,7 @@
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.79629629629629628</v>
+        <v>0.80180180180180183</v>
       </c>
     </row>
   </sheetData>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -359,12 +359,6 @@
     <t>Peform Integration Testing</t>
   </si>
   <si>
-    <t>Write User Manual</t>
-  </si>
-  <si>
-    <t>Project Evaluation</t>
-  </si>
-  <si>
     <t>Phase 1</t>
   </si>
   <si>
@@ -519,6 +513,30 @@
   </si>
   <si>
     <t>Prep and send out inspection and review Blakes</t>
+  </si>
+  <si>
+    <t>Finish Assesment</t>
+  </si>
+  <si>
+    <t>Assesment Evaluation</t>
+  </si>
+  <si>
+    <t>Set Up User Manual</t>
+  </si>
+  <si>
+    <t>Finish User Manual</t>
+  </si>
+  <si>
+    <t>Set Up Project Evaluation</t>
+  </si>
+  <si>
+    <t>Finish Evaluation</t>
+  </si>
+  <si>
+    <t>Set Up Assesment Evaluation</t>
+  </si>
+  <si>
+    <t>Write API</t>
   </si>
 </sst>
 </file>
@@ -1320,11 +1338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA62" sqref="AA62"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +1923,7 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1919,7 +1937,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,7 +1973,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1969,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1983,7 +2001,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,7 +2029,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2025,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2039,7 +2057,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,7 +2071,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,7 +2085,7 @@
         <v>45</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,7 +2110,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,7 +2124,7 @@
         <v>46</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2149,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,7 +2163,7 @@
         <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,7 +2191,7 @@
         <v>52</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,7 +2219,7 @@
         <v>54</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,7 +2233,7 @@
         <v>55</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,7 +2247,7 @@
         <v>56</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,7 +2261,7 @@
         <v>57</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2257,7 +2275,7 @@
         <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2271,7 +2289,7 @@
         <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,7 +2303,7 @@
         <v>38</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2299,7 +2317,7 @@
         <v>57</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,7 +2331,7 @@
         <v>40</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,7 +2447,76 @@
         <v>79</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
+        <v>42697</v>
+      </c>
+      <c r="B84" s="23">
+        <v>3</v>
+      </c>
+      <c r="C84" s="23">
+        <v>70</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
+        <v>42698</v>
+      </c>
+      <c r="B85" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C85" s="23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
+        <v>42699</v>
+      </c>
+      <c r="B86" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C86" s="23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="17">
+        <v>42699</v>
+      </c>
+      <c r="B87" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="17">
+        <v>42702</v>
+      </c>
+      <c r="B88" s="23">
+        <v>2</v>
+      </c>
+      <c r="C88" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="17">
+        <v>42704</v>
+      </c>
+      <c r="B89" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C89" s="23">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5676,14 +5763,14 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="M2" s="16">
         <v>42580</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">IF(M2-L2&gt;0,M2-L2,0)</f>
@@ -7634,7 +7721,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>38</v>
@@ -7683,7 +7770,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>38</v>
@@ -7729,7 +7816,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" si="0"/>
@@ -7830,7 +7917,7 @@
         <v>98</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
@@ -7856,7 +7943,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>38</v>
@@ -7885,7 +7972,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>38</v>
@@ -7914,7 +8001,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>38</v>
@@ -7943,7 +8030,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>38</v>
@@ -7972,7 +8059,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>38</v>
@@ -8001,7 +8088,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>38</v>
@@ -8030,7 +8117,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>38</v>
@@ -8059,7 +8146,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>38</v>
@@ -8088,7 +8175,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -8117,7 +8204,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>38</v>
@@ -8146,7 +8233,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>38</v>
@@ -8175,7 +8262,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>38</v>
@@ -8204,7 +8291,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>38</v>
@@ -8233,7 +8320,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>38</v>
@@ -8262,7 +8349,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>38</v>
@@ -8291,7 +8378,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>38</v>
@@ -10734,30 +10821,30 @@
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="M2" s="16">
         <v>42667</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>-30</v>
+        <v>-37</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">N2/(N2+O2)</f>
-        <v>1.4761904761904763</v>
+        <v>1.5873015873015872</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.47619047619047628</v>
+        <v>-0.58730158730158721</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-30.000000000000007</v>
+        <v>-36.999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -12603,7 +12690,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12647,7 +12734,9 @@
       <c r="A2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="C2" s="21">
         <v>70</v>
       </c>
@@ -12658,15 +12747,15 @@
         <v>4</v>
       </c>
       <c r="F2" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="22">
         <f>IF(F2+G2&gt;0,G2/(G2+F2),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -12674,7 +12763,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C66" si="0">C2+1</f>
@@ -12684,18 +12773,18 @@
         <v>100</v>
       </c>
       <c r="E3" s="23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C3)</f>
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="H3" s="22">
         <f t="shared" ref="H3:H66" si="1">IF(F3+G3&gt;0,G3/(G3+F3),"")</f>
-        <v>0.93333333333333335</v>
+        <v>0.89743589743589747</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -12710,10 +12799,10 @@
         <v>101</v>
       </c>
       <c r="E4" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C4)</f>
@@ -12736,10 +12825,10 @@
         <v>101</v>
       </c>
       <c r="E5" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C5)</f>
@@ -12752,7 +12841,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
@@ -12762,10 +12851,10 @@
         <v>102</v>
       </c>
       <c r="E6" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C6)</f>
@@ -12778,7 +12867,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
@@ -12882,7 +12971,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="23">
         <f t="shared" si="0"/>
@@ -12907,73 +12996,142 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1</v>
       </c>
       <c r="G12" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
         <v>81</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
       </c>
       <c r="G13" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23">
         <v>0</v>
-      </c>
-      <c r="H13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="23">
-        <f t="shared" si="0"/>
-        <v>82</v>
       </c>
       <c r="G14" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C14)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23">
         <v>0</v>
-      </c>
-      <c r="H14" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="23">
-        <f t="shared" si="0"/>
-        <v>83</v>
       </c>
       <c r="G15" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C15)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
       </c>
       <c r="G16" s="21">
         <f>SUMIFS('Time Log'!B:B,'Time Log'!C:C,'Phase 3 Tasks'!C16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
@@ -15460,9 +15618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R288"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15544,45 +15702,45 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(B:B)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(C:C)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6">
         <f>IF(H2+G2&gt;0,G2/(G2+H2),"")</f>
-        <v>0.42105263157894735</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="K2" s="16">
         <v>42667</v>
       </c>
       <c r="L2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="M2" s="16">
-        <v>42713</v>
+        <v>42716</v>
       </c>
       <c r="N2" s="5">
         <f ca="1">L2-K2</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O2" s="5">
         <f ca="1">M2-L2</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P2" s="28">
         <f ca="1">IF(N2&gt;0,N2/(N2+O2),0)</f>
-        <v>0.65217391304347827</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="Q2" s="6">
         <f ca="1">I2-P2</f>
-        <v>-0.23112128146453093</v>
+        <v>-0.13971742543171106</v>
       </c>
       <c r="R2" s="30">
         <f ca="1">Q2*(N2+O2)</f>
-        <v>-10.631578947368423</v>
+        <v>-6.8461538461538423</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -15591,15 +15749,15 @@
       </c>
       <c r="B3" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A3)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D65" si="0">IF(C3+B3&gt;0,B3/(B3+C3),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -15608,15 +15766,15 @@
       </c>
       <c r="B4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A4)</f>
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="C4" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.89743589743589747</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -15629,7 +15787,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
@@ -15642,15 +15800,15 @@
       </c>
       <c r="B6" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A6)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -15659,7 +15817,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A7)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="5">
         <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A7)</f>
@@ -15667,7 +15825,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -15705,9 +15863,20 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="5">
+        <f>SUMIFS('Phase 3 Tasks'!G:G,'Phase 3 Tasks'!D:D,A10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="5">
+        <f>SUMIFS('Phase 3 Tasks'!F:F,'Phase 3 Tasks'!D:D,A10)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" ref="D10" si="2">IF(C10+B10&gt;0,B10/(B10+C10),"")</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -16042,1339 +16211,1339 @@
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="11" t="str">
-        <f t="shared" ref="D66:D129" si="2">IF(C66+B66&gt;0,B66/(B66+C66),"")</f>
+        <f t="shared" ref="D66:D129" si="3">IF(C66+B66&gt;0,B66/(B66+C66),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="11" t="str">
-        <f t="shared" ref="D130:D170" si="3">IF(C130+B130&gt;0,B130/(B130+C130),"")</f>
+        <f t="shared" ref="D130:D170" si="4">IF(C130+B130&gt;0,B130/(B130+C130),"")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="4" t="str">
-        <f t="shared" ref="D171:D234" si="4">IF(C171&gt;0,B171/(B171+C171),"")</f>
+        <f t="shared" ref="D171:D234" si="5">IF(C171&gt;0,B171/(B171+C171),"")</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" s="4" t="str">
-        <f t="shared" ref="D235:D288" si="5">IF(C235&gt;0,B235/(B235+C235),"")</f>
+        <f t="shared" ref="D235:D288" si="6">IF(C235&gt;0,B235/(B235+C235),"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17404,7 +17573,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17417,17 +17586,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="E1" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="37"/>
       <c r="I1" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
@@ -17435,7 +17604,7 @@
         <v>49</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>51</v>
@@ -17444,7 +17613,7 @@
         <v>48</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>52</v>
@@ -17492,33 +17661,33 @@
       </c>
       <c r="N2" s="17">
         <f ca="1">TODAY()</f>
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="O2" s="17">
-        <v>42713</v>
+        <v>42716</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">N2-M2</f>
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q2" s="5">
         <v>25</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">O2-N2</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S2" s="28">
         <f ca="1">IF(P2&gt;0,(P2-Q2)/(P2+R2-Q2),0)</f>
-        <v>0.90062111801242239</v>
+        <v>0.92682926829268297</v>
       </c>
       <c r="T2" s="6">
         <f ca="1">G10-S2</f>
-        <v>-9.8819316210620567E-2</v>
+        <v>-6.075783972125437E-2</v>
       </c>
       <c r="U2" s="30">
         <f ca="1">T2*(P2+R2-Q2)</f>
-        <v>-15.909909909909912</v>
+        <v>-9.9642857142857171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17548,21 +17717,21 @@
       </c>
       <c r="I3" s="31">
         <f>'Phase 3 Portfolio'!G2</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J3" s="32">
         <f>'Phase 3 Portfolio'!H2</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K3" s="33">
         <f>'Phase 3 Portfolio'!I2</f>
-        <v>0.42105263157894735</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -17581,15 +17750,15 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="31">
         <f>A3+E3+I3</f>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F10" s="32">
         <f>B3+F3+J3</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G10" s="33">
         <f>E10/(E10+F10)</f>
-        <v>0.80180180180180183</v>
+        <v>0.8660714285714286</v>
       </c>
     </row>
   </sheetData>
